--- a/GPU Project/project.xlsx
+++ b/GPU Project/project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\MachineLearning\GPU Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01012DE2-7934-41DF-A165-F1FFD5C96C75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C961B35-B5E2-4151-BFAD-AC7F73FBDDBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4943" yWindow="2655" windowWidth="21599" windowHeight="11423" xr2:uid="{D07E6C46-63B7-49B7-9227-293DBCFA9FDD}"/>
+    <workbookView xWindow="4944" yWindow="2658" windowWidth="21600" windowHeight="11424" xr2:uid="{D07E6C46-63B7-49B7-9227-293DBCFA9FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>X</t>
   </si>
@@ -114,6 +113,63 @@
   <si>
     <t>CPU (3.7 GHz)</t>
   </si>
+  <si>
+    <t>Serial instructions:</t>
+  </si>
+  <si>
+    <t>Multiples of Bunnies =</t>
+  </si>
+  <si>
+    <t>Parallel Instructions</t>
+  </si>
+  <si>
+    <t>1 Core</t>
+  </si>
+  <si>
+    <t>2*8*6*7*5*7*2*8*6*7*5*7=</t>
+  </si>
+  <si>
+    <t>6 Cores</t>
+  </si>
+  <si>
+    <t>5*6=</t>
+  </si>
+  <si>
+    <t>8*5=</t>
+  </si>
+  <si>
+    <t>6*7=</t>
+  </si>
+  <si>
+    <t>7*7=</t>
+  </si>
+  <si>
+    <t>2*7=</t>
+  </si>
+  <si>
+    <t>2*8=</t>
+  </si>
+  <si>
+    <t>2^3^2^4=</t>
+  </si>
+  <si>
+    <t>2^2=</t>
+  </si>
+  <si>
+    <t>40*14*30*42*16*49=</t>
+  </si>
+  <si>
+    <t>Mutations of Bunnies?</t>
+  </si>
+  <si>
+    <t>2^4=</t>
+  </si>
+  <si>
+    <t>8^16=</t>
+  </si>
+  <si>
+    <t>Bunnies</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +204,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +224,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,13 +281,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,9 +302,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="6" builtinId="41"/>
     <cellStyle name="Accent6" xfId="3" builtinId="49"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,58 +653,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F951D03F-6059-469D-93B2-85B8B6FDE8DE}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1015625" customWidth="1"/>
+    <col min="3" max="3" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.26171875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <f>1+1</f>
-        <v>2</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <f>1-1</f>
-        <v>0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12">
+        <f>2*8*6*7*5*7*2*8*6*7*5*7</f>
+        <v>553190400</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <f>1*2</f>
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <f>2*1</f>
-        <v>2</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E5">
-        <f>1*2*3</f>
-        <v>6</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12">
+        <f>40*14*30*42*16*49</f>
+        <v>553190400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E6">
-        <f>3*2*1</f>
-        <v>6</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14">
+        <f>5*6</f>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E7">
-        <f>2*1*3</f>
-        <v>6</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14">
+        <f>8*5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="14">
+        <f>6*7</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="14">
+        <f>7*7</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="14">
+        <f>2*7</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14">
+        <f>2*8</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10">
+        <f>2^3^2^4</f>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15">
+        <f>16^8</f>
+        <v>4294967296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="14">
+        <f>2^4</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <cellWatches>
+    <cellWatch r="C2"/>
+    <cellWatch r="C6"/>
+  </cellWatches>
 </worksheet>
 </file>
 
@@ -608,20 +874,20 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="2.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="2.59765625" customWidth="1"/>
-    <col min="16" max="70" width="2.59765625" customWidth="1"/>
+    <col min="5" max="5" width="2.578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="2.578125" customWidth="1"/>
+    <col min="16" max="70" width="2.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="1" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="2" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P2" s="3">
         <v>1</v>
       </c>
@@ -788,7 +1054,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="3" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="3" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P3" s="3">
         <v>2</v>
       </c>
@@ -955,7 +1221,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="4" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="4" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P4" s="3">
         <v>3</v>
       </c>
@@ -1122,7 +1388,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="5" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="5" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P5" s="3">
         <v>4</v>
       </c>
@@ -1289,7 +1555,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="6" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="6" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P6" s="3">
         <v>5</v>
       </c>
@@ -1456,7 +1722,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="7" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="7" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P7" s="3">
         <v>6</v>
       </c>
@@ -1623,7 +1889,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="8" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="8" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P8" s="3">
         <v>7</v>
       </c>
@@ -1790,7 +2056,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="9" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="9" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="M9" t="s">
         <v>26</v>
       </c>
@@ -1960,7 +2226,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="10" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="10" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="M10" s="4">
         <v>1</v>
       </c>
@@ -2133,7 +2399,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="11" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="11" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="M11" s="4">
         <v>3</v>
       </c>
@@ -2306,7 +2572,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="12" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="12" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="M12" s="4">
         <v>5</v>
       </c>
@@ -2479,7 +2745,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="13" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="13" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +2927,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="14" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="14" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
         <v>1</v>
       </c>
@@ -2834,7 +3100,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="15" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="15" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
         <v>2</v>
       </c>
@@ -3007,7 +3273,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="16" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="16" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -3180,7 +3446,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="17" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>4</v>
       </c>
@@ -3353,7 +3619,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="18" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
         <v>5</v>
       </c>
@@ -3526,7 +3792,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="19" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" t="s">
         <v>6</v>
       </c>
@@ -3699,7 +3965,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="20" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" t="s">
         <v>7</v>
       </c>
@@ -3872,7 +4138,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="21" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>8</v>
       </c>
@@ -4045,7 +4311,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="22" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>9</v>
       </c>
@@ -4218,7 +4484,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="23" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>11</v>
       </c>
@@ -4391,7 +4657,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="24" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P24" s="3">
         <v>23</v>
       </c>
@@ -4558,7 +4824,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="25" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P25" s="3">
         <v>24</v>
       </c>
@@ -4725,7 +4991,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="26" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P26" s="3">
         <v>25</v>
       </c>
@@ -4892,7 +5158,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="27" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P27" s="3">
         <v>26</v>
       </c>
@@ -5059,7 +5325,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="28" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P28" s="3">
         <v>27</v>
       </c>
@@ -5226,7 +5492,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="29" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P29" s="3">
         <v>28</v>
       </c>
@@ -5393,7 +5659,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="30" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P30" s="3">
         <v>29</v>
       </c>
@@ -5557,7 +5823,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="31" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P31" s="3">
         <v>30</v>
       </c>
@@ -5721,7 +5987,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="32" spans="5:70" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:70" x14ac:dyDescent="0.55000000000000004">
       <c r="P32" s="3">
         <v>31</v>
       </c>
@@ -5885,7 +6151,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="33" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="33" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P33" s="3">
         <v>32</v>
       </c>
@@ -6049,7 +6315,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="34" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="34" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P34" s="3">
         <v>33</v>
       </c>
@@ -6213,7 +6479,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="35" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="35" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P35" s="3">
         <v>34</v>
       </c>
@@ -6377,7 +6643,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="36" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="36" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P36" s="3">
         <v>35</v>
       </c>
@@ -6541,7 +6807,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="37" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="37" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P37" s="3">
         <v>36</v>
       </c>
@@ -6705,7 +6971,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="38" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="38" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P38" s="3">
         <v>37</v>
       </c>
@@ -6869,7 +7135,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="39" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="39" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P39" s="3">
         <v>38</v>
       </c>
@@ -7033,7 +7299,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="40" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="40" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P40" s="3">
         <v>39</v>
       </c>
@@ -7197,7 +7463,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="41" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="41" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P41" s="3">
         <v>40</v>
       </c>
@@ -7361,7 +7627,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="42" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="42" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P42" s="3">
         <v>41</v>
       </c>
@@ -7525,7 +7791,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="43" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="43" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P43" s="3">
         <v>42</v>
       </c>
@@ -7689,7 +7955,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="44" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="44" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P44" s="3">
         <v>43</v>
       </c>
@@ -7853,7 +8119,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="45" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="45" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P45" s="3">
         <v>44</v>
       </c>
@@ -8017,7 +8283,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="46" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="46" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P46" s="3">
         <v>45</v>
       </c>
@@ -8181,7 +8447,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="47" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="47" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P47" s="3">
         <v>46</v>
       </c>
@@ -8345,7 +8611,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="48" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="48" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P48" s="3">
         <v>47</v>
       </c>
@@ -8509,7 +8775,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="49" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="49" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P49" s="3">
         <v>48</v>
       </c>
@@ -8673,7 +8939,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="50" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="50" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P50" s="3">
         <v>49</v>
       </c>
@@ -8837,7 +9103,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="51" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="51" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P51" s="3">
         <v>50</v>
       </c>
@@ -9001,7 +9267,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="52" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="52" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P52" s="3">
         <v>51</v>
       </c>
@@ -9165,7 +9431,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="53" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="53" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P53" s="3">
         <v>52</v>
       </c>
@@ -9329,7 +9595,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="54" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="54" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P54" s="3">
         <v>53</v>
       </c>
@@ -9493,7 +9759,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="55" spans="16:69" x14ac:dyDescent="0.45">
+    <row r="55" spans="16:69" x14ac:dyDescent="0.55000000000000004">
       <c r="P55" s="3">
         <v>54</v>
       </c>

--- a/GPU Project/project.xlsx
+++ b/GPU Project/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\MachineLearning\GPU Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5941D416-C138-4D7A-9CA1-BE83A1566945}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44F0E89-36BD-4E11-BC9E-F5FFDF0B997D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="402" activeTab="2" xr2:uid="{D07E6C46-63B7-49B7-9227-293DBCFA9FDD}"/>
   </bookViews>
@@ -431,7 +431,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,7 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -484,14 +483,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,8 +500,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -975,7 +974,7 @@
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="9">
@@ -987,7 +986,7 @@
       <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="9">
@@ -1076,7 +1075,6 @@
       <c r="G2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
@@ -10047,7 +10045,7 @@
   <dimension ref="B1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="O3" sqref="O3:O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10061,7 +10059,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C1" t="s">
@@ -10069,79 +10067,79 @@
       </c>
     </row>
     <row r="2" spans="2:23" ht="84" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>0.74213043623973773</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0.91981894607425407</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>0.27138187494507915</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>0.42813930223520125</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>0.33640707466320219</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>0.99885995113771164</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>0.999975821285361</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>0.92878906123014371</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>0.17341841458965834</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>0.56256175273936104</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20">
+      <c r="L3" s="20"/>
+      <c r="M3" s="19">
         <v>0.54882309800518014</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="19">
         <f>B3*$M$3+C3*$M$4+D3*$M$5+E3*$M$6+F3*$M$7+G3*$M$8+$H3*$M$9+I3*$M$10+J3*$M$11+K3*$M$12</f>
         <v>3.7800577430333311</v>
       </c>
@@ -10151,54 +10149,54 @@
       <c r="Q3">
         <v>19</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="26">
         <f t="array" ref="V3:V102">MMULT(B3:K102,M3:M12)</f>
         <v>3.7800577430333311</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>0.69012830285053139</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>0.10934624386509095</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>0.49073875692265323</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>0.65549497416350311</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>0.22453850081326232</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>0.90574979220436957</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>0.5827164801167608</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>0.73841286484253255</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>0.46790425874291686</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>5.2779607029442954E-2</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20">
+      <c r="L4" s="20"/>
+      <c r="M4" s="19">
         <v>0.83356134298181983</v>
       </c>
-      <c r="O4" s="20">
-        <f>B4*$M$3+C4*$M$4+D4*$M$5+E4*$M$6+F4*$M$7+G4*$M$8+$H4*$M$9+I4*$M$10+J4*$M$11+K4*$M$12</f>
+      <c r="O4" s="19">
+        <f t="shared" ref="O3:O34" si="0">B4*$M$3+C4*$M$4+D4*$M$5+E4*$M$6+F4*$M$7+G4*$M$8+$H4*$M$9+I4*$M$10+J4*$M$11+K4*$M$12</f>
         <v>2.2786620864843736</v>
       </c>
       <c r="P4">
@@ -10210,48 +10208,48 @@
       <c r="R4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="26">
         <v>2.2786620864843736</v>
       </c>
-      <c r="W4" s="29"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>0.79452259273727932</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>0.36051906846747461</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>0.96649353797528026</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>0.43843941940836417</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>0.46207162058555429</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>0.92358789166686261</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>0.9091740266148528</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>0.89351962758214842</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>0.35660614993880779</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>0.10465991935917662</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20">
+      <c r="L5" s="20"/>
+      <c r="M5" s="19">
         <v>9.8474938760423458E-2</v>
       </c>
-      <c r="O5" s="20">
-        <f>B5*$M$3+C5*$M$4+D5*$M$5+E5*$M$6+F5*$M$7+G5*$M$8+$H5*$M$9+I5*$M$10+J5*$M$11+K5*$M$12</f>
+      <c r="O5" s="19">
+        <f t="shared" si="0"/>
         <v>3.0260680737496863</v>
       </c>
       <c r="P5">
@@ -10263,48 +10261,48 @@
       <c r="R5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="26">
         <v>3.0260680737496863</v>
       </c>
-      <c r="W5" s="29"/>
+      <c r="W5" s="26"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>0.88398165288169295</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0.79366074253627916</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>0.89397827144218456</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>0.77396768244491221</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>0.62568358417105796</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>0.31732752473039461</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>0.30101831142198054</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>0.70506509222044289</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>0.98663997854310881</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>0.17734742013627636</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20">
+      <c r="L6" s="20"/>
+      <c r="M6" s="19">
         <v>0.16798175965215989</v>
       </c>
-      <c r="O6" s="20">
-        <f>B6*$M$3+C6*$M$4+D6*$M$5+E6*$M$6+F6*$M$7+G6*$M$8+$H6*$M$9+I6*$M$10+J6*$M$11+K6*$M$12</f>
+      <c r="O6" s="19">
+        <f t="shared" si="0"/>
         <v>3.2597050614242917</v>
       </c>
       <c r="P6">
@@ -10316,48 +10314,48 @@
       <c r="R6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="26">
         <v>3.2597050614242917</v>
       </c>
-      <c r="W6" s="29"/>
+      <c r="W6" s="26"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>0.7419493580842953</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>0.1614544713934859</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0.10357196673287694</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>0.71991808643404287</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>0.21083777844499296</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>0.65452508386672748</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>0.59153744650000417</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>0.39440137035183587</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>2.312268468380041E-2</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>0.86735600534610569</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20">
+      <c r="L7" s="20"/>
+      <c r="M7" s="19">
         <v>0.31339378120019268</v>
       </c>
-      <c r="O7" s="20">
-        <f>B7*$M$3+C7*$M$4+D7*$M$5+E7*$M$6+F7*$M$7+G7*$M$8+$H7*$M$9+I7*$M$10+J7*$M$11+K7*$M$12</f>
+      <c r="O7" s="19">
+        <f t="shared" si="0"/>
         <v>2.464265412925434</v>
       </c>
       <c r="P7">
@@ -10369,48 +10367,48 @@
       <c r="R7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="26">
         <v>2.464265412925434</v>
       </c>
-      <c r="W7" s="29"/>
+      <c r="W7" s="26"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>0.53142317802228922</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>0.78948817450377162</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>0.23924136716975075</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>0.12711370716816239</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>0.52466211015448161</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>0.46762048024429925</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>0.65128429355660555</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>0.83693778154376841</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>0.64696805181317263</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>0.30379274035516257</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20">
+      <c r="L8" s="20"/>
+      <c r="M8" s="19">
         <v>8.0928255893765066E-2</v>
       </c>
-      <c r="O8" s="20">
-        <f>B8*$M$3+C8*$M$4+D8*$M$5+E8*$M$6+F8*$M$7+G8*$M$8+$H8*$M$9+I8*$M$10+J8*$M$11+K8*$M$12</f>
+      <c r="O8" s="19">
+        <f t="shared" si="0"/>
         <v>3.1929704036810342</v>
       </c>
       <c r="P8">
@@ -10422,48 +10420,48 @@
       <c r="R8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="26">
         <v>3.1929704036810342</v>
       </c>
-      <c r="W8" s="29"/>
+      <c r="W8" s="26"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>0.83711650921713665</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>0.17913465040722376</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>0.32720932672916603</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>0.45021912697074173</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>0.72214748503739545</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>0.19704591314860742</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>0.46427383686981682</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>0.68273092238636179</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>0.90302780560746099</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>0.69509575764989917</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20">
+      <c r="L9" s="20"/>
+      <c r="M9" s="19">
         <v>0.8181367877553668</v>
       </c>
-      <c r="O9" s="20">
-        <f>B9*$M$3+C9*$M$4+D9*$M$5+E9*$M$6+F9*$M$7+G9*$M$8+$H9*$M$9+I9*$M$10+J9*$M$11+K9*$M$12</f>
+      <c r="O9" s="19">
+        <f t="shared" si="0"/>
         <v>3.1722994457887976</v>
       </c>
       <c r="P9">
@@ -10472,48 +10470,48 @@
       <c r="Q9">
         <v>19</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="26">
         <v>3.1722994457887976</v>
       </c>
-      <c r="W9" s="29"/>
+      <c r="W9" s="26"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>0.11205252810675703</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>0.45872848066125993</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>0.79363712046994261</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>0.51870153085304194</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>0.26721289586123032</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>0.37903446462963541</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>0.85110980498765998</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>0.95119678846074374</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>0.96544875744247227</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>0.92913439853538649</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="20">
+      <c r="L10" s="20"/>
+      <c r="M10" s="19">
         <v>0.94582900613158893</v>
       </c>
-      <c r="O10" s="20">
-        <f>B10*$M$3+C10*$M$4+D10*$M$5+E10*$M$6+F10*$M$7+G10*$M$8+$H10*$M$9+I10*$M$10+J10*$M$11+K10*$M$12</f>
+      <c r="O10" s="19">
+        <f t="shared" si="0"/>
         <v>3.7613671748524888</v>
       </c>
       <c r="P10">
@@ -10522,48 +10520,48 @@
       <c r="Q10">
         <v>19</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="26">
         <v>3.7613671748524888</v>
       </c>
-      <c r="W10" s="29"/>
+      <c r="W10" s="26"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>0.49512935455564233</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>0.49780933356435919</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>0.63621404953483307</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>0.36537042505869033</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>0.72413465126669574</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>0.65231291067870867</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>0.85806747783765658</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>0.12215257655600575</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>0.13809332855800482</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>0.91776306302497901</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="20">
+      <c r="L11" s="20"/>
+      <c r="M11" s="19">
         <v>0.60425603799592031</v>
       </c>
-      <c r="O11" s="20">
-        <f>B11*$M$3+C11*$M$4+D11*$M$5+E11*$M$6+F11*$M$7+G11*$M$8+$H11*$M$9+I11*$M$10+J11*$M$11+K11*$M$12</f>
+      <c r="O11" s="19">
+        <f t="shared" si="0"/>
         <v>2.8393561073732219</v>
       </c>
       <c r="P11">
@@ -10572,48 +10570,48 @@
       <c r="Q11">
         <v>19</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="26">
         <v>2.8393561073732219</v>
       </c>
-      <c r="W11" s="29"/>
+      <c r="W11" s="26"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>0.41776068191915283</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>6.5349792818679697E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>0.56597925281431849</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>0.63429607675866018</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>0.74427596612246105</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>0.38195407590412789</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>0.68113291453904135</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>0.7630562775830747</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>0.32964682584827842</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>0.26396786037472386</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="20">
+      <c r="L12" s="20"/>
+      <c r="M12" s="19">
         <v>0.92388853054267539</v>
       </c>
-      <c r="O12" s="20">
-        <f>B12*$M$3+C12*$M$4+D12*$M$5+E12*$M$6+F12*$M$7+G12*$M$8+$H12*$M$9+I12*$M$10+J12*$M$11+K12*$M$12</f>
+      <c r="O12" s="19">
+        <f t="shared" si="0"/>
         <v>2.4322456715314713</v>
       </c>
       <c r="P12">
@@ -10622,45 +10620,45 @@
       <c r="Q12">
         <v>19</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="26">
         <v>2.4322456715314713</v>
       </c>
-      <c r="W12" s="29"/>
+      <c r="W12" s="26"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>0.96075220376941994</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>0.28989393210302938</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>0.25551310673923655</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>8.2024050998123266E-2</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>0.98249808615947987</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>0.54441804187735776</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>0.64987025947608901</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>0.99821844052556041</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <v>0.69404783669755687</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <v>0.23948356638886736</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="O13" s="20">
-        <f>B13*$M$3+C13*$M$4+D13*$M$5+E13*$M$6+F13*$M$7+G13*$M$8+$H13*$M$9+I13*$M$10+J13*$M$11+K13*$M$12</f>
+      <c r="L13" s="20"/>
+      <c r="O13" s="19">
+        <f t="shared" si="0"/>
         <v>3.2763005893355839</v>
       </c>
       <c r="P13">
@@ -10669,45 +10667,45 @@
       <c r="Q13">
         <v>19</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="26">
         <v>3.2763005893355839</v>
       </c>
-      <c r="W13" s="29"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>0.27657198988441878</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>0.41380861439538508</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>0.26165692769635784</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>0.99373375923827845</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>0.37630763525106092</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>0.37244198123220151</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>0.37302277685322605</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>0.73730162771142327</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <v>0.22393268949065281</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>0.1874769615965598</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="O14" s="20">
-        <f>B14*$M$3+C14*$M$4+D14*$M$5+E14*$M$6+F14*$M$7+G14*$M$8+$H14*$M$9+I14*$M$10+J14*$M$11+K14*$M$12</f>
+      <c r="L14" s="20"/>
+      <c r="O14" s="19">
+        <f t="shared" si="0"/>
         <v>2.1485587252262293</v>
       </c>
       <c r="P14">
@@ -10716,45 +10714,45 @@
       <c r="Q14">
         <v>19</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="26">
         <v>2.1485587252262293</v>
       </c>
-      <c r="W14" s="29"/>
+      <c r="W14" s="26"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>0.6038915977876621</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>0.58109109141843862</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>0.94624387069194993</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>0.37232228019491642</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>0.79294986737585926</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>0.89681435081223027</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>0.4862941982352581</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>0.41482826315050225</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <v>0.31018428798830611</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <v>0.1816760364811244</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="O15" s="20">
-        <f>B15*$M$3+C15*$M$4+D15*$M$5+E15*$M$6+F15*$M$7+G15*$M$8+$H15*$M$9+I15*$M$10+J15*$M$11+K15*$M$12</f>
+      <c r="L15" s="20"/>
+      <c r="O15" s="19">
+        <f t="shared" si="0"/>
         <v>2.4381034780161168</v>
       </c>
       <c r="P15">
@@ -10763,45 +10761,45 @@
       <c r="Q15">
         <v>19</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="26">
         <v>2.4381034780161168</v>
       </c>
-      <c r="W15" s="29"/>
+      <c r="W15" s="26"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>0.67410712304318676</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>0.73462887406611621</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>0.66498307595317219</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>0.28539891603815581</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <v>0.59464705112078209</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>0.34118806641314758</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>0.50300641520694611</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <v>0.95602084137154419</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="19">
         <v>0.34368163029522925</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <v>0.9453434986007353</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="O16" s="20">
-        <f>B16*$M$3+C16*$M$4+D16*$M$5+E16*$M$6+F16*$M$7+G16*$M$8+$H16*$M$9+I16*$M$10+J16*$M$11+K16*$M$12</f>
+      <c r="L16" s="20"/>
+      <c r="O16" s="19">
+        <f t="shared" si="0"/>
         <v>3.7065442243204432</v>
       </c>
       <c r="P16">
@@ -10810,45 +10808,45 @@
       <c r="Q16">
         <v>19</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="26">
         <v>3.7065442243204432</v>
       </c>
-      <c r="W16" s="29"/>
+      <c r="W16" s="26"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>0.71736433079827022</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>0.19430829886873546</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>0.28686188722591854</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>0.39361545117143182</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>0.70017094765397536</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0.8963266005625341</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>0.49394472236070941</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>0.25987168840046393</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <v>8.8733590375555949E-4</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <v>0.5696883915580192</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="O17" s="20">
-        <f>B17*$M$3+C17*$M$4+D17*$M$5+E17*$M$6+F17*$M$7+G17*$M$8+$H17*$M$9+I17*$M$10+J17*$M$11+K17*$M$12</f>
+      <c r="L17" s="20"/>
+      <c r="O17" s="19">
+        <f t="shared" si="0"/>
         <v>2.1187835714062873</v>
       </c>
       <c r="P17">
@@ -10857,45 +10855,45 @@
       <c r="Q17">
         <v>19</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="26">
         <v>2.1187835714062873</v>
       </c>
-      <c r="W17" s="29"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>0.9330986039581709</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>0.54295725725139699</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>0.27879573528136548</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>0.63638127859954996</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>0.66768963516956237</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>0.88017515759437925</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>0.23499494657810494</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <v>0.73832094564465578</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="19">
         <v>0.98984852676789736</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <v>0.2512938244866606</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="O18" s="20">
-        <f>B18*$M$3+C18*$M$4+D18*$M$5+E18*$M$6+F18*$M$7+G18*$M$8+$H18*$M$9+I18*$M$10+J18*$M$11+K18*$M$12</f>
+      <c r="L18" s="20"/>
+      <c r="O18" s="19">
+        <f t="shared" si="0"/>
         <v>3.100402715068947</v>
       </c>
       <c r="P18">
@@ -10904,45 +10902,45 @@
       <c r="Q18">
         <v>19</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="26">
         <v>3.100402715068947</v>
       </c>
-      <c r="W18" s="29"/>
+      <c r="W18" s="26"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>0.4202571338867338</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>0.5528559481481935</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>0.44368037576588115</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>0.57006952179149972</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>0.83047830419233593</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>0.69394896850851739</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>0.88597597295785158</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>0.21884712344286961</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <v>0.81625950994696495</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <v>0.96417432740726594</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="O19" s="20">
-        <f>B19*$M$3+C19*$M$4+D19*$M$5+E19*$M$6+F19*$M$7+G19*$M$8+$H19*$M$9+I19*$M$10+J19*$M$11+K19*$M$12</f>
+      <c r="L19" s="20"/>
+      <c r="O19" s="19">
+        <f t="shared" si="0"/>
         <v>3.4632264974731855</v>
       </c>
       <c r="P19">
@@ -10951,45 +10949,45 @@
       <c r="Q19">
         <v>19</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="26">
         <v>3.4632264974731855</v>
       </c>
-      <c r="W19" s="29"/>
+      <c r="W19" s="26"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>0.84279820732119237</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>0.45162301718522158</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>8.688100075265226E-2</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>0.30323521033844858</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <v>0.69486306240786055</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>0.77319564806042951</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>7.8152580185876563E-2</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <v>9.0267284153834781E-2</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <v>0.22581830019867188</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <v>0.69333032311597653</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="O20" s="20">
-        <f>B20*$M$3+C20*$M$4+D20*$M$5+E20*$M$6+F20*$M$7+G20*$M$8+$H20*$M$9+I20*$M$10+J20*$M$11+K20*$M$12</f>
+      <c r="L20" s="20"/>
+      <c r="O20" s="19">
+        <f t="shared" si="0"/>
         <v>2.105164256472682</v>
       </c>
       <c r="P20">
@@ -10998,45 +10996,45 @@
       <c r="Q20">
         <v>19</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20" s="26">
         <v>2.105164256472682</v>
       </c>
-      <c r="W20" s="29"/>
+      <c r="W20" s="26"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>0.77612204324300671</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>0.50099371259837644</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>0.56601698948824386</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>0.31099442709029146</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <v>6.2506014663387455E-2</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>0.77617714283927441</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>0.77834743286679087</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <v>6.1337475960422605E-2</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="19">
         <v>0.68988390807226729</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <v>0.96418409954137507</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="O21" s="20">
-        <f>B21*$M$3+C21*$M$4+D21*$M$5+E21*$M$6+F21*$M$7+G21*$M$8+$H21*$M$9+I21*$M$10+J21*$M$11+K21*$M$12</f>
+      <c r="L21" s="20"/>
+      <c r="O21" s="19">
+        <f t="shared" si="0"/>
         <v>3.0364208145775691</v>
       </c>
       <c r="P21">
@@ -11045,45 +11043,45 @@
       <c r="Q21">
         <v>19</v>
       </c>
-      <c r="V21" s="29">
+      <c r="V21" s="26">
         <v>3.0364208145775691</v>
       </c>
-      <c r="W21" s="29"/>
+      <c r="W21" s="26"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>0.25030665697584065</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>0.82072471524260893</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>0.36355751540293124</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>0.22808349842847431</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>0.65690448809929836</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>4.5625146837026231E-2</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>0.96355189152184917</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19">
         <v>0.50253843981275192</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="19">
         <v>0.23217706950714356</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <v>0.66567316483314032</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="O22" s="20">
-        <f>B22*$M$3+C22*$M$4+D22*$M$5+E22*$M$6+F22*$M$7+G22*$M$8+$H22*$M$9+I22*$M$10+J22*$M$11+K22*$M$12</f>
+      <c r="L22" s="20"/>
+      <c r="O22" s="19">
+        <f t="shared" si="0"/>
         <v>3.1241106678884458</v>
       </c>
       <c r="P22">
@@ -11092,45 +11090,45 @@
       <c r="Q22">
         <v>19</v>
       </c>
-      <c r="V22" s="29">
+      <c r="V22" s="26">
         <v>3.1241106678884458</v>
       </c>
-      <c r="W22" s="29"/>
+      <c r="W22" s="26"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>0.10697266294178986</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>0.45380413099998163</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>0.41283821390135278</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>0.44728586330405629</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <v>0.87960809445006827</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>0.78076432059815259</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <v>1.5138423442470517E-2</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <v>0.86799580186997416</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="19">
         <v>0.24289517418701467</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <v>0.89359202739556598</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="O23" s="20">
-        <f>B23*$M$3+C23*$M$4+D23*$M$5+E23*$M$6+F23*$M$7+G23*$M$8+$H23*$M$9+I23*$M$10+J23*$M$11+K23*$M$12</f>
+      <c r="L23" s="20"/>
+      <c r="O23" s="19">
+        <f t="shared" si="0"/>
         <v>2.6973335432396475</v>
       </c>
       <c r="P23">
@@ -11139,45 +11137,45 @@
       <c r="Q23">
         <v>19</v>
       </c>
-      <c r="V23" s="29">
+      <c r="V23" s="26">
         <v>2.6973335432396475</v>
       </c>
-      <c r="W23" s="29"/>
+      <c r="W23" s="26"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>0.50854850789507433</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>0.52221172192413967</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>4.4695812056473327E-2</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>0.21513802723637421</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="19">
         <v>0.5516891049249889</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <v>0.69033848116450325</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>7.0527542414093758E-2</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <v>0.98578499938420228</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="19">
         <v>4.2302288106502273E-2</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <v>0.64341205070745855</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="O24" s="20">
-        <f>B24*$M$3+C24*$M$4+D24*$M$5+E24*$M$6+F24*$M$7+G24*$M$8+$H24*$M$9+I24*$M$10+J24*$M$11+K24*$M$12</f>
+      <c r="L24" s="20"/>
+      <c r="O24" s="19">
+        <f t="shared" si="0"/>
         <v>2.5937908277684727</v>
       </c>
       <c r="P24">
@@ -11186,45 +11184,45 @@
       <c r="Q24">
         <v>19</v>
       </c>
-      <c r="V24" s="29">
+      <c r="V24" s="26">
         <v>2.5937908277684727</v>
       </c>
-      <c r="W24" s="29"/>
+      <c r="W24" s="26"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>0.29386142509046131</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>6.7471800590048092E-2</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>0.88766714594949991</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>0.4750488555797745</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>0.39233264326526229</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>0.32120450092083652</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>0.96848661990856588</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <v>0.14253503648445809</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="19">
         <v>0.10959600837688677</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <v>0.33500349273078911</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="O25" s="20">
-        <f>B25*$M$3+C25*$M$4+D25*$M$5+E25*$M$6+F25*$M$7+G25*$M$8+$H25*$M$9+I25*$M$10+J25*$M$11+K25*$M$12</f>
+      <c r="L25" s="20"/>
+      <c r="O25" s="19">
+        <f t="shared" si="0"/>
         <v>1.8365797020603456</v>
       </c>
       <c r="P25">
@@ -11233,45 +11231,45 @@
       <c r="Q25">
         <v>19</v>
       </c>
-      <c r="V25" s="29">
+      <c r="V25" s="26">
         <v>1.8365797020603456</v>
       </c>
-      <c r="W25" s="29"/>
+      <c r="W25" s="26"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>0.91117669588025973</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>0.31351533853934843</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>0.71749513861369774</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>0.77768004090669696</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>0.59766305945699927</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>0.1563575645990728</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>0.29048727116280826</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <v>0.96740252176151931</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <v>0.45917354469231997</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <v>0.79318902498554145</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="O26" s="20">
-        <f>B26*$M$3+C26*$M$4+D26*$M$5+E26*$M$6+F26*$M$7+G26*$M$8+$H26*$M$9+I26*$M$10+J26*$M$11+K26*$M$12</f>
+      <c r="L26" s="20"/>
+      <c r="O26" s="19">
+        <f t="shared" si="0"/>
         <v>3.3255903845454933</v>
       </c>
       <c r="P26">
@@ -11280,45 +11278,45 @@
       <c r="Q26">
         <v>19</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="26">
         <v>3.3255903845454933</v>
       </c>
-      <c r="W26" s="29"/>
+      <c r="W26" s="26"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>2.37821141189416E-2</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>0.46942979830677578</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>0.35886411490929304</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>0.67721136565361373</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <v>0.93785241314247403</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <v>0.69054637038028144</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>0.13804654694173701</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <v>8.8586576063167666E-2</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="19">
         <v>0.17422634623508582</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <v>0.83279852638110929</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="O27" s="20">
-        <f>B27*$M$3+C27*$M$4+D27*$M$5+E27*$M$6+F27*$M$7+G27*$M$8+$H27*$M$9+I27*$M$10+J27*$M$11+K27*$M$12</f>
+      <c r="L27" s="20"/>
+      <c r="O27" s="19">
+        <f t="shared" si="0"/>
         <v>1.9746698527261111</v>
       </c>
       <c r="P27">
@@ -11327,45 +11325,45 @@
       <c r="Q27">
         <v>19</v>
       </c>
-      <c r="V27" s="29">
+      <c r="V27" s="26">
         <v>1.9746698527261111</v>
       </c>
-      <c r="W27" s="29"/>
+      <c r="W27" s="26"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>0.95899831178974781</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>0.1959454076975331</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>0.15471031032032057</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>0.16430734969439975</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="19">
         <v>0.47714734534828729</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>0.59076350010181777</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>0.71930280486323606</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>0.78610334023880846</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="19">
         <v>0.67073331408809456</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <v>6.1004441827543276E-2</v>
       </c>
-      <c r="L28" s="21"/>
-      <c r="O28" s="20">
-        <f>B28*$M$3+C28*$M$4+D28*$M$5+E28*$M$6+F28*$M$7+G28*$M$8+$H28*$M$9+I28*$M$10+J28*$M$11+K28*$M$12</f>
+      <c r="L28" s="20"/>
+      <c r="O28" s="19">
+        <f t="shared" si="0"/>
         <v>2.7234965244151792</v>
       </c>
       <c r="P28">
@@ -11374,45 +11372,45 @@
       <c r="Q28">
         <v>19</v>
       </c>
-      <c r="V28" s="29">
+      <c r="V28" s="26">
         <v>2.7234965244151792</v>
       </c>
-      <c r="W28" s="29"/>
+      <c r="W28" s="26"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>0.37449777830112052</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>0.71398854604959139</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>0.57113356628795986</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>0.42222303788800275</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>0.30108972406061973</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>0.40135787119167121</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>0.64273563729213867</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="19">
         <v>1.5601658079278824E-2</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="19">
         <v>0.18901274488571751</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="19">
         <v>0.93334516311239979</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="O29" s="20">
-        <f>B29*$M$3+C29*$M$4+D29*$M$5+E29*$M$6+F29*$M$7+G29*$M$8+$H29*$M$9+I29*$M$10+J29*$M$11+K29*$M$12</f>
+      <c r="L29" s="20"/>
+      <c r="O29" s="19">
+        <f t="shared" si="0"/>
         <v>2.5718163876626297</v>
       </c>
       <c r="P29">
@@ -11421,45 +11419,45 @@
       <c r="Q29">
         <v>19</v>
       </c>
-      <c r="V29" s="29">
+      <c r="V29" s="26">
         <v>2.5718163876626297</v>
       </c>
-      <c r="W29" s="29"/>
+      <c r="W29" s="26"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>0.19248805503683231</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <v>0.77058740024281991</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>0.92185751696760665</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>5.9783034365943122E-2</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="19">
         <v>0.31411070033987187</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <v>0.59362259007341356</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>0.86873944072530418</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="19">
         <v>0.41495298769180045</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="19">
         <v>0.92267222320113795</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="19">
         <v>0.15489327023350852</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="O30" s="20">
-        <f>B30*$M$3+C30*$M$4+D30*$M$5+E30*$M$6+F30*$M$7+G30*$M$8+$H30*$M$9+I30*$M$10+J30*$M$11+K30*$M$12</f>
+      <c r="L30" s="20"/>
+      <c r="O30" s="19">
+        <f t="shared" si="0"/>
         <v>2.7991339068923282</v>
       </c>
       <c r="P30">
@@ -11468,45 +11466,45 @@
       <c r="Q30">
         <v>19</v>
       </c>
-      <c r="V30" s="29">
+      <c r="V30" s="26">
         <v>2.7991339068923282</v>
       </c>
-      <c r="W30" s="29"/>
+      <c r="W30" s="26"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>7.9833972749210225E-2</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>6.9367966695604966E-2</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>0.41485119056628628</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>0.29977181997157576</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="19">
         <v>0.22804034830737496</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>0.15227681271239635</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>0.52683165911311114</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="19">
         <v>0.9908987231869113</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="19">
         <v>0.13503222983301844</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <v>0.56035903963010325</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="O31" s="20">
-        <f>B31*$M$3+C31*$M$4+D31*$M$5+E31*$M$6+F31*$M$7+G31*$M$8+$H31*$M$9+I31*$M$10+J31*$M$11+K31*$M$12</f>
+      <c r="L31" s="20"/>
+      <c r="O31" s="19">
+        <f t="shared" si="0"/>
         <v>2.2441801967201651</v>
       </c>
       <c r="P31">
@@ -11515,45 +11513,45 @@
       <c r="Q31">
         <v>19</v>
       </c>
-      <c r="V31" s="29">
+      <c r="V31" s="26">
         <v>2.2441801967201651</v>
       </c>
-      <c r="W31" s="29"/>
+      <c r="W31" s="26"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>0.62091884988281876</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>0.31146619850120671</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>0.5371872429577792</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>0.68471720034609784</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="19">
         <v>0.23567437631119725</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>6.0465730167179932E-2</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <v>0.72565662393739616</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="19">
         <v>0.88949284925002159</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="19">
         <v>0.24240470357888666</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <v>0.1504397837066459</v>
       </c>
-      <c r="L32" s="21"/>
-      <c r="O32" s="20">
-        <f>B32*$M$3+C32*$M$4+D32*$M$5+E32*$M$6+F32*$M$7+G32*$M$8+$H32*$M$9+I32*$M$10+J32*$M$11+K32*$M$12</f>
+      <c r="L32" s="20"/>
+      <c r="O32" s="19">
+        <f t="shared" si="0"/>
         <v>2.5675311539268253</v>
       </c>
       <c r="P32">
@@ -11562,45 +11560,45 @@
       <c r="Q32">
         <v>19</v>
       </c>
-      <c r="V32" s="29">
+      <c r="V32" s="26">
         <v>2.5675311539268253</v>
       </c>
-      <c r="W32" s="29"/>
+      <c r="W32" s="26"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>0.42493107524498841</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="19">
         <v>0.61551515955477221</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>0.25239842862460138</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>0.15141447216754778</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="19">
         <v>0.81541214661342842</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="19">
         <v>0.20777311277239319</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="19">
         <v>0.31613314360829481</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="19">
         <v>0.7694984872930879</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="19">
         <v>0.5535147728590778</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="19">
         <v>0.29090509966669842</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="O33" s="20">
-        <f>B33*$M$3+C33*$M$4+D33*$M$5+E33*$M$6+F33*$M$7+G33*$M$8+$H33*$M$9+I33*$M$10+J33*$M$11+K33*$M$12</f>
+      <c r="L33" s="20"/>
+      <c r="O33" s="19">
+        <f t="shared" si="0"/>
         <v>2.6586139057037044</v>
       </c>
       <c r="P33">
@@ -11609,45 +11607,45 @@
       <c r="Q33">
         <v>19</v>
       </c>
-      <c r="V33" s="29">
+      <c r="V33" s="26">
         <v>2.6586139057037044</v>
       </c>
-      <c r="W33" s="29"/>
+      <c r="W33" s="26"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>0.49574777719810215</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <v>0.5133612810127437</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>0.82968777775611424</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>0.55699831538578226</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <v>0.77428498563396531</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="19">
         <v>0.21638855079126162</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="19">
         <v>0.60137367290996557</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="19">
         <v>0.83073800990816093</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="19">
         <v>0.30885444847983801</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="19">
         <v>0.75521702565470372</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="O34" s="20">
-        <f>B34*$M$3+C34*$M$4+D34*$M$5+E34*$M$6+F34*$M$7+G34*$M$8+$H34*$M$9+I34*$M$10+J34*$M$11+K34*$M$12</f>
+      <c r="L34" s="20"/>
+      <c r="O34" s="19">
+        <f t="shared" si="0"/>
         <v>3.2975385520699252</v>
       </c>
       <c r="P34">
@@ -11656,45 +11654,45 @@
       <c r="Q34">
         <v>19</v>
       </c>
-      <c r="V34" s="29">
+      <c r="V34" s="26">
         <v>3.2975385520699252</v>
       </c>
-      <c r="W34" s="29"/>
+      <c r="W34" s="26"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>5.0737221101817331E-2</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <v>0.30209184475013606</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>7.4222114291173424E-2</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>0.51560361739907523</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="19">
         <v>0.81690791075308045</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="19">
         <v>0.1451205638982519</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>0.13893870417921439</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="19">
         <v>0.45789430731099723</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="19">
         <v>0.84774652934431483</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <v>0.23865628546706374</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="O35" s="20">
-        <f>B35*$M$3+C35*$M$4+D35*$M$5+E35*$M$6+F35*$M$7+G35*$M$8+$H35*$M$9+I35*$M$10+J35*$M$11+K35*$M$12</f>
+      <c r="L35" s="20"/>
+      <c r="O35" s="19">
+        <f t="shared" ref="O35:O66" si="1">B35*$M$3+C35*$M$4+D35*$M$5+E35*$M$6+F35*$M$7+G35*$M$8+$H35*$M$9+I35*$M$10+J35*$M$11+K35*$M$12</f>
         <v>1.9208454236107979</v>
       </c>
       <c r="P35">
@@ -11703,45 +11701,45 @@
       <c r="Q35">
         <v>19</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35" s="26">
         <v>1.9208454236107979</v>
       </c>
-      <c r="W35" s="29"/>
+      <c r="W35" s="26"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>0.75023589845833261</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="19">
         <v>0.10915471514647357</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>0.43497950144036768</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>0.6274168886192103</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="19">
         <v>0.25610235197635778</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="19">
         <v>0.10568283790700683</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>0.57252771041902306</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="19">
         <v>0.52196993028516814</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="19">
         <v>0.80272960670452642</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <v>0.48270321803640204</v>
       </c>
-      <c r="L36" s="21"/>
-      <c r="O36" s="20">
-        <f>B36*$M$3+C36*$M$4+D36*$M$5+E36*$M$6+F36*$M$7+G36*$M$8+$H36*$M$9+I36*$M$10+J36*$M$11+K36*$M$12</f>
+      <c r="L36" s="20"/>
+      <c r="O36" s="19">
+        <f t="shared" si="1"/>
         <v>2.6328951867633856</v>
       </c>
       <c r="P36">
@@ -11750,45 +11748,45 @@
       <c r="Q36">
         <v>19</v>
       </c>
-      <c r="V36" s="29">
+      <c r="V36" s="26">
         <v>2.6328951867633856</v>
       </c>
-      <c r="W36" s="29"/>
+      <c r="W36" s="26"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>0.20646644116857105</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="19">
         <v>0.38168932735894123</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <v>0.9086831279483677</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>0.74664913231842678</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="19">
         <v>0.37821063676737898</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="19">
         <v>7.2975506188766803E-2</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>0.35674013813123506</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="19">
         <v>0.42632226389106875</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="19">
         <v>0.78013169720214304</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="19">
         <v>0.23243779908631645</v>
       </c>
-      <c r="L37" s="21"/>
-      <c r="O37" s="20">
-        <f>B37*$M$3+C37*$M$4+D37*$M$5+E37*$M$6+F37*$M$7+G37*$M$8+$H37*$M$9+I37*$M$10+J37*$M$11+K37*$M$12</f>
+      <c r="L37" s="20"/>
+      <c r="O37" s="19">
+        <f t="shared" si="1"/>
         <v>2.1520517115726059</v>
       </c>
       <c r="P37">
@@ -11797,45 +11795,45 @@
       <c r="Q37">
         <v>19</v>
       </c>
-      <c r="V37" s="29">
+      <c r="V37" s="26">
         <v>2.1520517115726059</v>
       </c>
-      <c r="W37" s="29"/>
+      <c r="W37" s="26"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>8.1002244867501849E-3</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="19">
         <v>0.29721472354608713</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>0.27312790992187519</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>0.42928712683904757</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="19">
         <v>0.85920090083115852</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="19">
         <v>0.93147170205938634</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="19">
         <v>0.21990880303230564</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="19">
         <v>0.83161051219371485</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="19">
         <v>0.40158760310074837</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="19">
         <v>0.48510330119901091</v>
       </c>
-      <c r="L38" s="21"/>
-      <c r="O38" s="20">
-        <f>B38*$M$3+C38*$M$4+D38*$M$5+E38*$M$6+F38*$M$7+G38*$M$8+$H38*$M$9+I38*$M$10+J38*$M$11+K38*$M$12</f>
+      <c r="L38" s="20"/>
+      <c r="O38" s="19">
+        <f t="shared" si="1"/>
         <v>2.3531714909731489</v>
       </c>
       <c r="P38">
@@ -11844,45 +11842,45 @@
       <c r="Q38">
         <v>19</v>
       </c>
-      <c r="V38" s="29">
+      <c r="V38" s="26">
         <v>2.3531714909731489</v>
       </c>
-      <c r="W38" s="29"/>
+      <c r="W38" s="26"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>0.42884844278706302</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>0.70198787992544254</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <v>0.21192098007477944</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="19">
         <v>0.24233960313950154</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="19">
         <v>0.12691784459379807</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="19">
         <v>0.50567985713834784</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="19">
         <v>0.42099885250595792</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="19">
         <v>0.14769084135857025</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="19">
         <v>0.50283967626815906</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="19">
         <v>0.37583711392077079</v>
       </c>
-      <c r="L39" s="21"/>
-      <c r="O39" s="20">
-        <f>B39*$M$3+C39*$M$4+D39*$M$5+E39*$M$6+F39*$M$7+G39*$M$8+$H39*$M$9+I39*$M$10+J39*$M$11+K39*$M$12</f>
+      <c r="L39" s="20"/>
+      <c r="O39" s="19">
+        <f t="shared" si="1"/>
         <v>2.097988921461686</v>
       </c>
       <c r="P39">
@@ -11891,45 +11889,45 @@
       <c r="Q39">
         <v>19</v>
       </c>
-      <c r="V39" s="29">
+      <c r="V39" s="26">
         <v>2.097988921461686</v>
       </c>
-      <c r="W39" s="29"/>
+      <c r="W39" s="26"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>0.92720738124796642</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>0.36494760170643203</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <v>0.63324278393351086</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>0.45007655898451848</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="19">
         <v>0.53955659733519246</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="19">
         <v>0.10054866233781623</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <v>0.39636149770821361</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="19">
         <v>0.23105341062341767</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="19">
         <v>0.92370706750478426</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="19">
         <v>0.65993565203664872</v>
       </c>
-      <c r="L40" s="21"/>
-      <c r="O40" s="20">
-        <f>B40*$M$3+C40*$M$4+D40*$M$5+E40*$M$6+F40*$M$7+G40*$M$8+$H40*$M$9+I40*$M$10+J40*$M$11+K40*$M$12</f>
+      <c r="L40" s="20"/>
+      <c r="O40" s="19">
+        <f t="shared" si="1"/>
         <v>2.8389506402270626</v>
       </c>
       <c r="P40">
@@ -11938,45 +11936,45 @@
       <c r="Q40">
         <v>19</v>
       </c>
-      <c r="V40" s="29">
+      <c r="V40" s="26">
         <v>2.8389506402270626</v>
       </c>
-      <c r="W40" s="29"/>
+      <c r="W40" s="26"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>0.16795370883643645</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>0.95606674216311516</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>0.12257714189832936</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="19">
         <v>0.44371016055728729</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="19">
         <v>3.734544767356418E-2</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="19">
         <v>9.7710677080087294E-5</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="19">
         <v>0.94627690622079641</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="19">
         <v>0.99826605536386248</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="19">
         <v>0.23912659706462791</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K41" s="19">
         <v>0.35525452625440801</v>
       </c>
-      <c r="L41" s="21"/>
-      <c r="O41" s="20">
-        <f>B41*$M$3+C41*$M$4+D41*$M$5+E41*$M$6+F41*$M$7+G41*$M$8+$H41*$M$9+I41*$M$10+J41*$M$11+K41*$M$12</f>
+      <c r="L41" s="20"/>
+      <c r="O41" s="19">
+        <f t="shared" si="1"/>
         <v>3.178517092816155</v>
       </c>
       <c r="P41">
@@ -11985,45 +11983,45 @@
       <c r="Q41">
         <v>19</v>
       </c>
-      <c r="V41" s="29">
+      <c r="V41" s="26">
         <v>3.178517092816155</v>
       </c>
-      <c r="W41" s="29"/>
+      <c r="W41" s="26"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>0.27223686838886518</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="19">
         <v>0.82132758318595211</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>0.93744685564443031</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <v>0.1631589801906389</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="19">
         <v>0.91108073814354917</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="19">
         <v>0.73006115249562686</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="19">
         <v>0.61352239133770381</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="19">
         <v>0.58504238771308381</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="19">
         <v>0.71383114821640692</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="19">
         <v>0.93730833180968287</v>
       </c>
-      <c r="L42" s="21"/>
-      <c r="O42" s="20">
-        <f>B42*$M$3+C42*$M$4+D42*$M$5+E42*$M$6+F42*$M$7+G42*$M$8+$H42*$M$9+I42*$M$10+J42*$M$11+K42*$M$12</f>
+      <c r="L42" s="20"/>
+      <c r="O42" s="19">
+        <f t="shared" si="1"/>
         <v>3.6509696696787617</v>
       </c>
       <c r="P42">
@@ -12032,45 +12030,45 @@
       <c r="Q42">
         <v>19</v>
       </c>
-      <c r="V42" s="29">
+      <c r="V42" s="26">
         <v>3.6509696696787617</v>
       </c>
-      <c r="W42" s="29"/>
+      <c r="W42" s="26"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>0.56361419502542698</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="19">
         <v>0.23024983290944623</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="19">
         <v>0.92987330054571904</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="19">
         <v>0.86100961064186243</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="19">
         <v>4.5520239089122172E-2</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="19">
         <v>0.36539922779273082</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <v>0.60789125865333826</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="19">
         <v>0.95266035310843911</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="19">
         <v>3.1538893456723893E-2</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="19">
         <v>0.26875005500922977</v>
       </c>
-      <c r="L43" s="21"/>
-      <c r="O43" s="20">
-        <f>B43*$M$3+C43*$M$4+D43*$M$5+E43*$M$6+F43*$M$7+G43*$M$8+$H43*$M$9+I43*$M$10+J43*$M$11+K43*$M$12</f>
+      <c r="L43" s="20"/>
+      <c r="O43" s="19">
+        <f t="shared" si="1"/>
         <v>2.4470365132230016</v>
       </c>
       <c r="P43">
@@ -12079,45 +12077,45 @@
       <c r="Q43">
         <v>19</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43" s="26">
         <v>2.4470365132230016</v>
       </c>
-      <c r="W43" s="29"/>
+      <c r="W43" s="26"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>0.25549138068680732</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="19">
         <v>0.64096255048702866</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="19">
         <v>0.84826889705265496</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="19">
         <v>0.87514023202760016</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="19">
         <v>5.3831895127277596E-3</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="19">
         <v>0.92678761880501115</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <v>0.70662547492756866</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="19">
         <v>0.72974343469470981</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="19">
         <v>2.6840364357515245E-2</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <v>0.27612596355958186</v>
       </c>
-      <c r="L44" s="21"/>
-      <c r="O44" s="20">
-        <f>B44*$M$3+C44*$M$4+D44*$M$5+E44*$M$6+F44*$M$7+G44*$M$8+$H44*$M$9+I44*$M$10+J44*$M$11+K44*$M$12</f>
+      <c r="L44" s="20"/>
+      <c r="O44" s="19">
+        <f t="shared" si="1"/>
         <v>2.521389229659821</v>
       </c>
       <c r="P44">
@@ -12126,45 +12124,45 @@
       <c r="Q44">
         <v>19</v>
       </c>
-      <c r="V44" s="29">
+      <c r="V44" s="26">
         <v>2.521389229659821</v>
       </c>
-      <c r="W44" s="29"/>
+      <c r="W44" s="26"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>0.12603870556366248</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="19">
         <v>0.2597781214359649</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <v>0.33126105043695397</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>0.45082575518410939</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="19">
         <v>0.46924514790886673</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="19">
         <v>0.55529290859630964</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="19">
         <v>0.90062620387735381</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="19">
         <v>0.33166973064030203</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="19">
         <v>0.67525880934216498</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="19">
         <v>0.92839341118824237</v>
       </c>
-      <c r="L45" s="21"/>
-      <c r="O45" s="20">
-        <f>B45*$M$3+C45*$M$4+D45*$M$5+E45*$M$6+F45*$M$7+G45*$M$8+$H45*$M$9+I45*$M$10+J45*$M$11+K45*$M$12</f>
+      <c r="L45" s="20"/>
+      <c r="O45" s="19">
+        <f t="shared" si="1"/>
         <v>2.9023622840483041</v>
       </c>
       <c r="P45">
@@ -12173,45 +12171,45 @@
       <c r="Q45">
         <v>19</v>
       </c>
-      <c r="V45" s="29">
+      <c r="V45" s="26">
         <v>2.9023622840483041</v>
       </c>
-      <c r="W45" s="29"/>
+      <c r="W45" s="26"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>0.99680758068302544</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="19">
         <v>5.0089061106263544E-2</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="19">
         <v>0.14511490190166909</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>0.83425587089779529</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="19">
         <v>0.53353364571094419</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="19">
         <v>0.28542361306456343</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="19">
         <v>0.49210568434710322</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="19">
         <v>9.138434842730514E-2</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="19">
         <v>0.48115719419686909</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="19">
         <v>0.27883368515376983</v>
       </c>
-      <c r="L46" s="21"/>
-      <c r="O46" s="20">
-        <f>B46*$M$3+C46*$M$4+D46*$M$5+E46*$M$6+F46*$M$7+G46*$M$8+$H46*$M$9+I46*$M$10+J46*$M$11+K46*$M$12</f>
+      <c r="L46" s="20"/>
+      <c r="O46" s="19">
+        <f t="shared" si="1"/>
         <v>1.9709553564226048</v>
       </c>
       <c r="P46">
@@ -12220,45 +12218,45 @@
       <c r="Q46">
         <v>19</v>
       </c>
-      <c r="V46" s="29">
+      <c r="V46" s="26">
         <v>1.9709553564226048</v>
       </c>
-      <c r="W46" s="29"/>
+      <c r="W46" s="26"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>0.63206090917817659</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="19">
         <v>0.38771822190722616</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="19">
         <v>7.8770817192832188E-2</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>0.31598724565010594</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="19">
         <v>0.66405102751814182</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="19">
         <v>0.88237919342082449</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="19">
         <v>0.67383522346330371</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="19">
         <v>0.73328655965535194</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="19">
         <v>0.77177588487769611</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>0.52465015274414517</v>
       </c>
-      <c r="L47" s="21"/>
-      <c r="O47" s="20">
-        <f>B47*$M$3+C47*$M$4+D47*$M$5+E47*$M$6+F47*$M$7+G47*$M$8+$H47*$M$9+I47*$M$10+J47*$M$11+K47*$M$12</f>
+      <c r="L47" s="20"/>
+      <c r="O47" s="19">
+        <f t="shared" si="1"/>
         <v>3.2063540448039745</v>
       </c>
       <c r="P47">
@@ -12267,45 +12265,45 @@
       <c r="Q47">
         <v>19</v>
       </c>
-      <c r="V47" s="29">
+      <c r="V47" s="26">
         <v>3.2063540448039745</v>
       </c>
-      <c r="W47" s="29"/>
+      <c r="W47" s="26"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>0.90313025193847341</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="19">
         <v>0.17328837493818239</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="19">
         <v>0.89019509620562121</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>0.23136235205554001</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="19">
         <v>1.1384997554925613E-2</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="19">
         <v>0.87101518322364491</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="19">
         <v>0.63469038876324635</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="19">
         <v>0.68240112677797105</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="19">
         <v>0.92427728434188705</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="19">
         <v>0.11164980470144059</v>
       </c>
-      <c r="L48" s="21"/>
-      <c r="O48" s="20">
-        <f>B48*$M$3+C48*$M$4+D48*$M$5+E48*$M$6+F48*$M$7+G48*$M$8+$H48*$M$9+I48*$M$10+J48*$M$11+K48*$M$12</f>
+      <c r="L48" s="20"/>
+      <c r="O48" s="19">
+        <f t="shared" si="1"/>
         <v>2.6670399622273813</v>
       </c>
       <c r="P48">
@@ -12314,45 +12312,45 @@
       <c r="Q48">
         <v>19</v>
       </c>
-      <c r="V48" s="29">
+      <c r="V48" s="26">
         <v>2.6670399622273813</v>
       </c>
-      <c r="W48" s="29"/>
+      <c r="W48" s="26"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>0.98922240984533505</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <v>0.57983192846951925</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="19">
         <v>0.39278859104368136</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>0.16933520536719227</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="19">
         <v>0.59993250316198976</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="19">
         <v>0.11969468815805218</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <v>0.93470525032894036</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="19">
         <v>0.15044473306129891</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="19">
         <v>0.85907302383027018</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <v>0.22360631229989936</v>
       </c>
-      <c r="L49" s="21"/>
-      <c r="O49" s="20">
-        <f>B49*$M$3+C49*$M$4+D49*$M$5+E49*$M$6+F49*$M$7+G49*$M$8+$H49*$M$9+I49*$M$10+J49*$M$11+K49*$M$12</f>
+      <c r="L49" s="20"/>
+      <c r="O49" s="19">
+        <f t="shared" si="1"/>
         <v>2.9237595571579003</v>
       </c>
       <c r="P49">
@@ -12361,45 +12359,45 @@
       <c r="Q49">
         <v>19</v>
       </c>
-      <c r="V49" s="29">
+      <c r="V49" s="26">
         <v>2.9237595571579003</v>
       </c>
-      <c r="W49" s="29"/>
+      <c r="W49" s="26"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B50" s="20">
+      <c r="B50" s="19">
         <v>0.4549065344757881</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="19">
         <v>0.18343380901132</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="19">
         <v>0.45401359833502708</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>0.15322200296264121</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="19">
         <v>0.34106470443333314</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="19">
         <v>0.28157177789344867</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>0.68954777351842311</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="19">
         <v>0.51151877584848693</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="19">
         <v>7.6803563673593866E-2</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <v>0.83000819994139119</v>
       </c>
-      <c r="L50" s="21"/>
-      <c r="O50" s="20">
-        <f>B50*$M$3+C50*$M$4+D50*$M$5+E50*$M$6+F50*$M$7+G50*$M$8+$H50*$M$9+I50*$M$10+J50*$M$11+K50*$M$12</f>
+      <c r="L50" s="20"/>
+      <c r="O50" s="19">
+        <f t="shared" si="1"/>
         <v>2.4638864480394402</v>
       </c>
       <c r="P50">
@@ -12408,45 +12406,45 @@
       <c r="Q50">
         <v>19</v>
       </c>
-      <c r="V50" s="29">
+      <c r="V50" s="26">
         <v>2.4638864480394402</v>
       </c>
-      <c r="W50" s="29"/>
+      <c r="W50" s="26"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>0.46951099893661152</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
         <v>0.92303819648320873</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="19">
         <v>0.50690850269443855</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>0.20020643418780859</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>0.53435521448457624</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="19">
         <v>5.9872428623115037E-2</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="19">
         <v>0.96121933133281223</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="19">
         <v>0.99806681300180322</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="19">
         <v>0.12599060697099973</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="19">
         <v>0.88691248289389424</v>
       </c>
-      <c r="L51" s="21"/>
-      <c r="O51" s="20">
-        <f>B51*$M$3+C51*$M$4+D51*$M$5+E51*$M$6+F51*$M$7+G51*$M$8+$H51*$M$9+I51*$M$10+J51*$M$11+K51*$M$12</f>
+      <c r="L51" s="20"/>
+      <c r="O51" s="19">
+        <f t="shared" si="1"/>
         <v>3.9088935183256375</v>
       </c>
       <c r="P51">
@@ -12455,45 +12453,45 @@
       <c r="Q51">
         <v>19</v>
       </c>
-      <c r="V51" s="29">
+      <c r="V51" s="26">
         <v>3.9088935183256375</v>
       </c>
-      <c r="W51" s="29"/>
+      <c r="W51" s="26"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>0.73129628726386042</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="19">
         <v>2.894626824265456E-2</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>0.48841804618915852</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>0.22920365917445862</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="19">
         <v>0.69867834668938478</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="19">
         <v>0.9014928346378337</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <v>0.94275478532459589</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="19">
         <v>0.21217183880314305</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="19">
         <v>0.12265996810222191</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="19">
         <v>0.67524886424355091</v>
       </c>
-      <c r="L52" s="21"/>
-      <c r="O52" s="20">
-        <f>B52*$M$3+C52*$M$4+D52*$M$5+E52*$M$6+F52*$M$7+G52*$M$8+$H52*$M$9+I52*$M$10+J52*$M$11+K52*$M$12</f>
+      <c r="L52" s="20"/>
+      <c r="O52" s="19">
+        <f t="shared" si="1"/>
         <v>2.4739508054744448</v>
       </c>
       <c r="P52">
@@ -12502,45 +12500,45 @@
       <c r="Q52">
         <v>19</v>
       </c>
-      <c r="V52" s="29">
+      <c r="V52" s="26">
         <v>2.4739508054744448</v>
       </c>
-      <c r="W52" s="29"/>
+      <c r="W52" s="26"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>0.55524419424767613</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="19">
         <v>0.34130582487282746</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="19">
         <v>0.76031716299918262</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>0.90441427696325027</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="19">
         <v>0.37048906365316714</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="19">
         <v>0.75595337489429026</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="19">
         <v>0.91466691908525888</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="19">
         <v>0.11161012668292825</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="19">
         <v>0.52412998258195209</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <v>0.9260315725246907</v>
       </c>
-      <c r="L53" s="21"/>
-      <c r="O53" s="20">
-        <f>B53*$M$3+C53*$M$4+D53*$M$5+E53*$M$6+F53*$M$7+G53*$M$8+$H53*$M$9+I53*$M$10+J53*$M$11+K53*$M$12</f>
+      <c r="L53" s="20"/>
+      <c r="O53" s="19">
+        <f t="shared" si="1"/>
         <v>3.01945983075441</v>
       </c>
       <c r="P53">
@@ -12549,45 +12547,45 @@
       <c r="Q53">
         <v>19</v>
       </c>
-      <c r="V53" s="29">
+      <c r="V53" s="26">
         <v>3.01945983075441</v>
       </c>
-      <c r="W53" s="29"/>
+      <c r="W53" s="26"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B54" s="20">
+      <c r="B54" s="19">
         <v>0.77734149821446374</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="19">
         <v>0.47134574448434807</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="19">
         <v>0.35139027273044032</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>2.198214949010735E-3</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="19">
         <v>0.23663019486859949</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="19">
         <v>0.55436301839178781</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="19">
         <v>0.56648798584357263</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="19">
         <v>0.65631785854459057</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="19">
         <v>0.15213257943476532</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="19">
         <v>0.60853261795163316</v>
       </c>
-      <c r="L54" s="21"/>
-      <c r="O54" s="20">
-        <f>B54*$M$3+C54*$M$4+D54*$M$5+E54*$M$6+F54*$M$7+G54*$M$8+$H54*$M$9+I54*$M$10+J54*$M$11+K54*$M$12</f>
+      <c r="L54" s="20"/>
+      <c r="O54" s="19">
+        <f t="shared" si="1"/>
         <v>2.7118854851486995</v>
       </c>
       <c r="P54">
@@ -12596,45 +12594,45 @@
       <c r="Q54">
         <v>19</v>
       </c>
-      <c r="V54" s="29">
+      <c r="V54" s="26">
         <v>2.7118854851486995</v>
       </c>
-      <c r="W54" s="29"/>
+      <c r="W54" s="26"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>0.98131170741791762</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="19">
         <v>0.67645825567317242</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="19">
         <v>0.83825475865246168</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>0.95768516401034331</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="19">
         <v>0.47780349290745472</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="19">
         <v>0.72927131073208806</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <v>0.88761660941200327</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="19">
         <v>0.50355306756027962</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="19">
         <v>0.12173887724383925</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <v>0.99502841356405436</v>
       </c>
-      <c r="L55" s="21"/>
-      <c r="O55" s="20">
-        <f>B55*$M$3+C55*$M$4+D55*$M$5+E55*$M$6+F55*$M$7+G55*$M$8+$H55*$M$9+I55*$M$10+J55*$M$11+K55*$M$12</f>
+      <c r="L55" s="20"/>
+      <c r="O55" s="19">
+        <f t="shared" si="1"/>
         <v>3.7499396965719543</v>
       </c>
       <c r="P55">
@@ -12643,45 +12641,45 @@
       <c r="Q55">
         <v>19</v>
       </c>
-      <c r="V55" s="29">
+      <c r="V55" s="26">
         <v>3.7499396965719543</v>
       </c>
-      <c r="W55" s="29"/>
+      <c r="W55" s="26"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>0.79111619734685157</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="19">
         <v>0.55133928973841728</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="19">
         <v>0.60633451135466132</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>0.23327314749120354</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="19">
         <v>0.16875982359924269</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="19">
         <v>0.49810973727473606</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>0.25703672118944865</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="19">
         <v>0.93013005357608813</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="19">
         <v>0.60776135284893362</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="19">
         <v>0.98088298304890187</v>
       </c>
-      <c r="L56" s="21"/>
-      <c r="O56" s="20">
-        <f>B56*$M$3+C56*$M$4+D56*$M$5+E56*$M$6+F56*$M$7+G56*$M$8+$H56*$M$9+I56*$M$10+J56*$M$11+K56*$M$12</f>
+      <c r="L56" s="20"/>
+      <c r="O56" s="19">
+        <f t="shared" si="1"/>
         <v>3.4493569668049195</v>
       </c>
       <c r="P56">
@@ -12690,45 +12688,45 @@
       <c r="Q56">
         <v>19</v>
       </c>
-      <c r="V56" s="29">
+      <c r="V56" s="26">
         <v>3.4493569668049195</v>
       </c>
-      <c r="W56" s="29"/>
+      <c r="W56" s="26"/>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B57" s="20">
+      <c r="B57" s="19">
         <v>0.86459680630321156</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
         <v>0.39266760096501319</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="19">
         <v>0.39896702086473035</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>0.41159443462944301</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="19">
         <v>0.47886688957297741</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="19">
         <v>0.38606351485230372</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="19">
         <v>0.48193410585283525</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="19">
         <v>0.2576382606535359</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="19">
         <v>0.7319809581410196</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="19">
         <v>1.6606650655130117E-2</v>
       </c>
-      <c r="L57" s="21"/>
-      <c r="O57" s="20">
-        <f>B57*$M$3+C57*$M$4+D57*$M$5+E57*$M$6+F57*$M$7+G57*$M$8+$H57*$M$9+I57*$M$10+J57*$M$11+K57*$M$12</f>
+      <c r="L57" s="20"/>
+      <c r="O57" s="19">
+        <f t="shared" si="1"/>
         <v>2.1871855620551481</v>
       </c>
       <c r="P57">
@@ -12737,45 +12735,45 @@
       <c r="Q57">
         <v>19</v>
       </c>
-      <c r="V57" s="29">
+      <c r="V57" s="26">
         <v>2.1871855620551481</v>
       </c>
-      <c r="W57" s="29"/>
+      <c r="W57" s="26"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B58" s="20">
+      <c r="B58" s="19">
         <v>0.21841144517877753</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="19">
         <v>0.15723647475771163</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="19">
         <v>0.89270142720611356</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>0.4708097917472146</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="19">
         <v>0.78667660274962614</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="19">
         <v>1.1903853354780392E-2</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="19">
         <v>0.83408986174981359</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="19">
         <v>0.79353283079924586</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="19">
         <v>0.54665157610647375</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="19">
         <v>0.56228470809007935</v>
       </c>
-      <c r="L58" s="21"/>
-      <c r="O58" s="20">
-        <f>B58*$M$3+C58*$M$4+D58*$M$5+E58*$M$6+F58*$M$7+G58*$M$8+$H58*$M$9+I58*$M$10+J58*$M$11+K58*$M$12</f>
+      <c r="L58" s="20"/>
+      <c r="O58" s="19">
+        <f t="shared" si="1"/>
         <v>2.9481864590352744</v>
       </c>
       <c r="P58">
@@ -12784,45 +12782,45 @@
       <c r="Q58">
         <v>19</v>
       </c>
-      <c r="V58" s="29">
+      <c r="V58" s="26">
         <v>2.9481864590352744</v>
       </c>
-      <c r="W58" s="29"/>
+      <c r="W58" s="26"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>0.68127611129546173</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <v>0.97336447740223742</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <v>0.72965972345671781</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>0.98835231266114987</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="19">
         <v>0.64129724317712811</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="19">
         <v>0.67170763271612011</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>0.42519940331507156</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="19">
         <v>7.0839158858324813E-2</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="19">
         <v>0.74746752620073531</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="19">
         <v>0.95623625905470155</v>
       </c>
-      <c r="L59" s="21"/>
-      <c r="O59" s="20">
-        <f>B59*$M$3+C59*$M$4+D59*$M$5+E59*$M$6+F59*$M$7+G59*$M$8+$H59*$M$9+I59*$M$10+J59*$M$11+K59*$M$12</f>
+      <c r="L59" s="20"/>
+      <c r="O59" s="19">
+        <f t="shared" si="1"/>
         <v>3.428466602655738</v>
       </c>
       <c r="P59">
@@ -12831,45 +12829,45 @@
       <c r="Q59">
         <v>19</v>
       </c>
-      <c r="V59" s="29">
+      <c r="V59" s="26">
         <v>3.428466602655738</v>
       </c>
-      <c r="W59" s="29"/>
+      <c r="W59" s="26"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B60" s="20">
+      <c r="B60" s="19">
         <v>0.32137329914039003</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="19">
         <v>0.5750505856189233</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="19">
         <v>0.40157837769309346</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>7.1930587571757854E-2</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="19">
         <v>0.24331027859310195</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="19">
         <v>0.56623813235112797</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="19">
         <v>0.73212716350163665</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="19">
         <v>0.5493431235265499</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="19">
         <v>0.19721278449190049</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="19">
         <v>0.95374598470992589</v>
       </c>
-      <c r="L60" s="21"/>
-      <c r="O60" s="20">
-        <f>B60*$M$3+C60*$M$4+D60*$M$5+E60*$M$6+F60*$M$7+G60*$M$8+$H60*$M$9+I60*$M$10+J60*$M$11+K60*$M$12</f>
+      <c r="L60" s="20"/>
+      <c r="O60" s="19">
+        <f t="shared" si="1"/>
         <v>2.9483088720400716</v>
       </c>
       <c r="P60">
@@ -12878,45 +12876,45 @@
       <c r="Q60">
         <v>19</v>
       </c>
-      <c r="V60" s="29">
+      <c r="V60" s="26">
         <v>2.9483088720400716</v>
       </c>
-      <c r="W60" s="29"/>
+      <c r="W60" s="26"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B61" s="20">
+      <c r="B61" s="19">
         <v>0.59804801618551129</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="19">
         <v>0.38915144291731285</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>0.9686357760377754</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <v>0.75856782618634699</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="19">
         <v>0.92461272470523503</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="19">
         <v>0.64557460534430933</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="19">
         <v>0.12010011195549619</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="19">
         <v>0.69204292326263706</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="19">
         <v>0.28790855966814888</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K61" s="19">
         <v>0.47376321035169244</v>
       </c>
-      <c r="L61" s="21"/>
-      <c r="O61" s="20">
-        <f>B61*$M$3+C61*$M$4+D61*$M$5+E61*$M$6+F61*$M$7+G61*$M$8+$H61*$M$9+I61*$M$10+J61*$M$11+K61*$M$12</f>
+      <c r="L61" s="20"/>
+      <c r="O61" s="19">
+        <f t="shared" si="1"/>
         <v>2.5819166480874536</v>
       </c>
       <c r="P61">
@@ -12925,45 +12923,45 @@
       <c r="Q61">
         <v>19</v>
       </c>
-      <c r="V61" s="29">
+      <c r="V61" s="26">
         <v>2.5819166480874536</v>
       </c>
-      <c r="W61" s="29"/>
+      <c r="W61" s="26"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B62" s="20">
+      <c r="B62" s="19">
         <v>0.78418075254218833</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="19">
         <v>0.18807162087344997</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="19">
         <v>0.88891641094839202</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="19">
         <v>0.50203799090016721</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="19">
         <v>0.90625930647082076</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="19">
         <v>3.3297760751288319E-2</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="19">
         <v>1.6227197424598216E-2</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="19">
         <v>0.65418619262801558</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="19">
         <v>0.33579874111551722</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="19">
         <v>0.84384450447649506</v>
       </c>
-      <c r="L62" s="21"/>
-      <c r="O62" s="20">
-        <f>B62*$M$3+C62*$M$4+D62*$M$5+E62*$M$6+F62*$M$7+G62*$M$8+$H62*$M$9+I62*$M$10+J62*$M$11+K62*$M$12</f>
+      <c r="L62" s="20"/>
+      <c r="O62" s="19">
+        <f t="shared" si="1"/>
         <v>2.6602767373301046</v>
       </c>
       <c r="P62">
@@ -12972,45 +12970,45 @@
       <c r="Q62">
         <v>19</v>
       </c>
-      <c r="V62" s="29">
+      <c r="V62" s="26">
         <v>2.6602767373301046</v>
       </c>
-      <c r="W62" s="29"/>
+      <c r="W62" s="26"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B63" s="20">
+      <c r="B63" s="19">
         <v>0.19706359644209592</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="19">
         <v>0.92652089476248833</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="19">
         <v>0.62838678252559477</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="19">
         <v>0.50058621890468102</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="19">
         <v>0.40566650547800354</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="19">
         <v>0.73276434186647499</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="19">
         <v>0.41536561039202824</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="19">
         <v>0.20784728676787478</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="19">
         <v>9.3440677474937783E-2</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="19">
         <v>0.3054558690781306</v>
       </c>
-      <c r="L63" s="21"/>
-      <c r="O63" s="20">
-        <f>B63*$M$3+C63*$M$4+D63*$M$5+E63*$M$6+F63*$M$7+G63*$M$8+$H63*$M$9+I63*$M$10+J63*$M$11+K63*$M$12</f>
+      <c r="L63" s="20"/>
+      <c r="O63" s="19">
+        <f t="shared" si="1"/>
         <v>2.0879526053929225</v>
       </c>
       <c r="P63">
@@ -13019,45 +13017,45 @@
       <c r="Q63">
         <v>19</v>
       </c>
-      <c r="V63" s="29">
+      <c r="V63" s="26">
         <v>2.0879526053929225</v>
       </c>
-      <c r="W63" s="29"/>
+      <c r="W63" s="26"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B64" s="20">
+      <c r="B64" s="19">
         <v>0.18820206617880919</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="19">
         <v>7.8865808783261104E-2</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="19">
         <v>0.19296248122627235</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="19">
         <v>0.86566602373889467</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="19">
         <v>0.61450393056900665</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="19">
         <v>0.46197323291478309</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="19">
         <v>0.70213463867180148</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="19">
         <v>0.70248446500311679</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="19">
         <v>0.1891430717478465</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K64" s="19">
         <v>0.10584343454107759</v>
       </c>
-      <c r="L64" s="21"/>
-      <c r="O64" s="20">
-        <f>B64*$M$3+C64*$M$4+D64*$M$5+E64*$M$6+F64*$M$7+G64*$M$8+$H64*$M$9+I64*$M$10+J64*$M$11+K64*$M$12</f>
+      <c r="L64" s="20"/>
+      <c r="O64" s="19">
+        <f t="shared" si="1"/>
         <v>2.0143663388952957</v>
       </c>
       <c r="P64">
@@ -13066,45 +13064,45 @@
       <c r="Q64">
         <v>19</v>
       </c>
-      <c r="V64" s="29">
+      <c r="V64" s="26">
         <v>2.0143663388952957</v>
       </c>
-      <c r="W64" s="29"/>
+      <c r="W64" s="26"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B65" s="20">
+      <c r="B65" s="19">
         <v>0.47630761221027373</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="19">
         <v>0.87329691087330796</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="19">
         <v>0.47588856112491396</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="19">
         <v>0.39667597004492505</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="19">
         <v>0.94235883133919063</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="19">
         <v>0.92195493948704799</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="19">
         <v>0.71197353968568489</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="19">
         <v>0.52637842857165462</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="19">
         <v>0.48217655716410956</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="19">
         <v>0.40565404265973393</v>
       </c>
-      <c r="L65" s="21"/>
-      <c r="O65" s="20">
-        <f>B65*$M$3+C65*$M$4+D65*$M$5+E65*$M$6+F65*$M$7+G65*$M$8+$H65*$M$9+I65*$M$10+J65*$M$11+K65*$M$12</f>
+      <c r="L65" s="20"/>
+      <c r="O65" s="19">
+        <f t="shared" si="1"/>
         <v>3.2192871363240654</v>
       </c>
       <c r="P65">
@@ -13113,45 +13111,45 @@
       <c r="Q65">
         <v>19</v>
       </c>
-      <c r="V65" s="29">
+      <c r="V65" s="26">
         <v>3.2192871363240654</v>
       </c>
-      <c r="W65" s="29"/>
+      <c r="W65" s="26"/>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B66" s="20">
+      <c r="B66" s="19">
         <v>0.38569173974225224</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="19">
         <v>0.73351938074115763</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="19">
         <v>0.68685441682118753</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="19">
         <v>0.60638402643032552</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="19">
         <v>0.97752933916996987</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="19">
         <v>0.30178513246228966</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="19">
         <v>0.11278292246582555</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="19">
         <v>0.53249814595097245</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="19">
         <v>0.42651638497425015</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="19">
         <v>0.72900854509290891</v>
       </c>
-      <c r="L66" s="21"/>
-      <c r="O66" s="20">
-        <f>B66*$M$3+C66*$M$4+D66*$M$5+E66*$M$6+F66*$M$7+G66*$M$8+$H66*$M$9+I66*$M$10+J66*$M$11+K66*$M$12</f>
+      <c r="L66" s="20"/>
+      <c r="O66" s="19">
+        <f t="shared" si="1"/>
         <v>2.8505556827295075</v>
       </c>
       <c r="P66">
@@ -13160,45 +13158,45 @@
       <c r="Q66">
         <v>19</v>
       </c>
-      <c r="V66" s="29">
+      <c r="V66" s="26">
         <v>2.8505556827295075</v>
       </c>
-      <c r="W66" s="29"/>
+      <c r="W66" s="26"/>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B67" s="20">
+      <c r="B67" s="19">
         <v>0.25294327242508119</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="19">
         <v>0.47611984271767216</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="19">
         <v>0.4897421412408981</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="19">
         <v>0.14042553279807035</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="19">
         <v>0.86175200293628629</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="19">
         <v>0.63494759762276587</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="19">
         <v>0.72688962657070455</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="19">
         <v>0.81510932768463407</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J67" s="19">
         <v>0.76881417323196777</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K67" s="19">
         <v>0.43754250543030349</v>
       </c>
-      <c r="L67" s="21"/>
-      <c r="O67" s="20">
-        <f>B67*$M$3+C67*$M$4+D67*$M$5+E67*$M$6+F67*$M$7+G67*$M$8+$H67*$M$9+I67*$M$10+J67*$M$11+K67*$M$12</f>
+      <c r="L67" s="20"/>
+      <c r="O67" s="19">
+        <f t="shared" ref="O67:O102" si="2">B67*$M$3+C67*$M$4+D67*$M$5+E67*$M$6+F67*$M$7+G67*$M$8+$H67*$M$9+I67*$M$10+J67*$M$11+K67*$M$12</f>
         <v>3.1634156797831547</v>
       </c>
       <c r="P67">
@@ -13207,45 +13205,45 @@
       <c r="Q67">
         <v>19</v>
       </c>
-      <c r="V67" s="29">
+      <c r="V67" s="26">
         <v>3.1634156797831547</v>
       </c>
-      <c r="W67" s="29"/>
+      <c r="W67" s="26"/>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B68" s="20">
+      <c r="B68" s="19">
         <v>0.80873714714523048</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="19">
         <v>0.13545042293151732</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>2.1704811644301159E-2</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="19">
         <v>0.55872103172313203</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="19">
         <v>0.38928574185009412</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G68" s="19">
         <v>0.86187079978582282</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="19">
         <v>0.12575341765219261</v>
       </c>
-      <c r="I68" s="20">
+      <c r="I68" s="19">
         <v>0.90412474078419391</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J68" s="19">
         <v>0.99428263478506518</v>
       </c>
-      <c r="K68" s="20">
+      <c r="K68" s="19">
         <v>0.71727936820452975</v>
       </c>
-      <c r="L68" s="21"/>
-      <c r="O68" s="20">
-        <f>B68*$M$3+C68*$M$4+D68*$M$5+E68*$M$6+F68*$M$7+G68*$M$8+$H68*$M$9+I68*$M$10+J68*$M$11+K68*$M$12</f>
+      <c r="L68" s="20"/>
+      <c r="O68" s="19">
+        <f t="shared" si="2"/>
         <v>3.066019985498071</v>
       </c>
       <c r="P68">
@@ -13254,45 +13252,45 @@
       <c r="Q68">
         <v>19</v>
       </c>
-      <c r="V68" s="29">
+      <c r="V68" s="26">
         <v>3.066019985498071</v>
       </c>
-      <c r="W68" s="29"/>
+      <c r="W68" s="26"/>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B69" s="20">
+      <c r="B69" s="19">
         <v>0.9299134987970965</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="19">
         <v>0.75302351966885339</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="19">
         <v>0.81298266330579161</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <v>0.92661853923236825</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="19">
         <v>0.27532659365577961</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G69" s="19">
         <v>9.2073825801267106E-2</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="19">
         <v>4.2037246294462927E-2</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="19">
         <v>0.36829665529356326</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J69" s="19">
         <v>0.88265257598158087</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K69" s="19">
         <v>0.34464751480245759</v>
       </c>
-      <c r="L69" s="21"/>
-      <c r="O69" s="20">
-        <f>B69*$M$3+C69*$M$4+D69*$M$5+E69*$M$6+F69*$M$7+G69*$M$8+$H69*$M$9+I69*$M$10+J69*$M$11+K69*$M$12</f>
+      <c r="L69" s="20"/>
+      <c r="O69" s="19">
+        <f t="shared" si="2"/>
         <v>2.7020016623368157</v>
       </c>
       <c r="P69">
@@ -13301,45 +13299,45 @@
       <c r="Q69">
         <v>19</v>
       </c>
-      <c r="V69" s="29">
+      <c r="V69" s="26">
         <v>2.7020016623368157</v>
       </c>
-      <c r="W69" s="29"/>
+      <c r="W69" s="26"/>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B70" s="20">
+      <c r="B70" s="19">
         <v>0.17544463337748695</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="19">
         <v>8.570082920384714E-2</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="19">
         <v>0.17529184170172074</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>0.72467525079805473</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="19">
         <v>0.34867631920521325</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="19">
         <v>0.55345204061085818</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="19">
         <v>0.87295798550411718</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="19">
         <v>0.1900775924437017</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="19">
         <v>0.88883866407594392</v>
       </c>
-      <c r="K70" s="20">
+      <c r="K70" s="19">
         <v>0.46501340372218258</v>
       </c>
-      <c r="L70" s="21"/>
-      <c r="O70" s="20">
-        <f>B70*$M$3+C70*$M$4+D70*$M$5+E70*$M$6+F70*$M$7+G70*$M$8+$H70*$M$9+I70*$M$10+J70*$M$11+K70*$M$12</f>
+      <c r="L70" s="20"/>
+      <c r="O70" s="19">
+        <f t="shared" si="2"/>
         <v>2.3214685634191028</v>
       </c>
       <c r="P70">
@@ -13348,45 +13346,45 @@
       <c r="Q70">
         <v>19</v>
       </c>
-      <c r="V70" s="29">
+      <c r="V70" s="26">
         <v>2.3214685634191028</v>
       </c>
-      <c r="W70" s="29"/>
+      <c r="W70" s="26"/>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B71" s="20">
+      <c r="B71" s="19">
         <v>0.26660777993812923</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="19">
         <v>0.39088504476104258</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="19">
         <v>0.75001308199236405</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="19">
         <v>0.5025418920520841</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="19">
         <v>0.42567929964182072</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G71" s="19">
         <v>2.7650983369412629E-2</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="19">
         <v>0.69472656513881759</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I71" s="19">
         <v>0.11811650814067209</v>
       </c>
-      <c r="J71" s="20">
+      <c r="J71" s="19">
         <v>0.73510604180995931</v>
       </c>
-      <c r="K71" s="20">
+      <c r="K71" s="19">
         <v>0.8772313931909882</v>
       </c>
-      <c r="L71" s="21"/>
-      <c r="O71" s="20">
-        <f>B71*$M$3+C71*$M$4+D71*$M$5+E71*$M$6+F71*$M$7+G71*$M$8+$H71*$M$9+I71*$M$10+J71*$M$11+K71*$M$12</f>
+      <c r="L71" s="20"/>
+      <c r="O71" s="19">
+        <f t="shared" si="2"/>
         <v>2.7008211924017274</v>
       </c>
       <c r="P71">
@@ -13395,45 +13393,45 @@
       <c r="Q71">
         <v>19</v>
       </c>
-      <c r="V71" s="29">
+      <c r="V71" s="26">
         <v>2.7008211924017274</v>
       </c>
-      <c r="W71" s="29"/>
+      <c r="W71" s="26"/>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B72" s="20">
+      <c r="B72" s="19">
         <v>4.7404225415928036E-2</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="19">
         <v>0.59759705050961787</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="19">
         <v>0.81762375977252089</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="19">
         <v>0.44725061372852648</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="19">
         <v>0.28235888385116636</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G72" s="19">
         <v>0.66692761408756829</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="19">
         <v>0.44418142490214951</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I72" s="19">
         <v>0.92186250322309382</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J72" s="19">
         <v>0.33141918276076465</v>
       </c>
-      <c r="K72" s="20">
+      <c r="K72" s="19">
         <v>0.46171988299271671</v>
       </c>
-      <c r="L72" s="21"/>
-      <c r="O72" s="20">
-        <f>B72*$M$3+C72*$M$4+D72*$M$5+E72*$M$6+F72*$M$7+G72*$M$8+$H72*$M$9+I72*$M$10+J72*$M$11+K72*$M$12</f>
+      <c r="L72" s="20"/>
+      <c r="O72" s="19">
+        <f t="shared" si="2"/>
         <v>2.6844237413643159</v>
       </c>
       <c r="P72">
@@ -13442,45 +13440,45 @@
       <c r="Q72">
         <v>19</v>
       </c>
-      <c r="V72" s="29">
+      <c r="V72" s="26">
         <v>2.6844237413643159</v>
       </c>
-      <c r="W72" s="29"/>
+      <c r="W72" s="26"/>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B73" s="20">
+      <c r="B73" s="19">
         <v>0.8134723324677694</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="19">
         <v>0.25354950071190729</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="19">
         <v>0.46887466849486703</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="19">
         <v>0.79758213707215531</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="19">
         <v>0.79897011551650465</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G73" s="19">
         <v>0.71991180088959106</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="19">
         <v>0.31674638180800674</v>
       </c>
-      <c r="I73" s="20">
+      <c r="I73" s="19">
         <v>0.14423882353259387</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J73" s="19">
         <v>0.52281358606573547</v>
       </c>
-      <c r="K73" s="20">
+      <c r="K73" s="19">
         <v>0.96712689485668057</v>
       </c>
-      <c r="L73" s="21"/>
-      <c r="O73" s="20">
-        <f>B73*$M$3+C73*$M$4+D73*$M$5+E73*$M$6+F73*$M$7+G73*$M$8+$H73*$M$9+I73*$M$10+J73*$M$11+K73*$M$12</f>
+      <c r="L73" s="20"/>
+      <c r="O73" s="19">
+        <f t="shared" si="2"/>
         <v>2.7516044374190312</v>
       </c>
       <c r="P73">
@@ -13489,45 +13487,45 @@
       <c r="Q73">
         <v>19</v>
       </c>
-      <c r="V73" s="29">
+      <c r="V73" s="26">
         <v>2.7516044374190312</v>
       </c>
-      <c r="W73" s="29"/>
+      <c r="W73" s="26"/>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B74" s="20">
+      <c r="B74" s="19">
         <v>0.41417294975724761</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="19">
         <v>0.35534054029187567</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="19">
         <v>0.50138492356167841</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="19">
         <v>0.18751593094002073</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="19">
         <v>0.30612311992232866</v>
       </c>
-      <c r="G74" s="20">
+      <c r="G74" s="19">
         <v>0.67844758461823906</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="19">
         <v>0.40897368913317522</v>
       </c>
-      <c r="I74" s="20">
+      <c r="I74" s="19">
         <v>0.18750902014007975</v>
       </c>
-      <c r="J74" s="20">
+      <c r="J74" s="19">
         <v>0.9112583355689744</v>
       </c>
-      <c r="K74" s="20">
+      <c r="K74" s="19">
         <v>0.48428202778351115</v>
       </c>
-      <c r="L74" s="21"/>
-      <c r="O74" s="20">
-        <f>B74*$M$3+C74*$M$4+D74*$M$5+E74*$M$6+F74*$M$7+G74*$M$8+$H74*$M$9+I74*$M$10+J74*$M$11+K74*$M$12</f>
+      <c r="L74" s="20"/>
+      <c r="O74" s="19">
+        <f t="shared" si="2"/>
         <v>2.2652254397887797</v>
       </c>
       <c r="P74">
@@ -13536,45 +13534,45 @@
       <c r="Q74">
         <v>19</v>
       </c>
-      <c r="V74" s="29">
+      <c r="V74" s="26">
         <v>2.2652254397887797</v>
       </c>
-      <c r="W74" s="29"/>
+      <c r="W74" s="26"/>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B75" s="20">
+      <c r="B75" s="19">
         <v>0.11768089688648964</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="19">
         <v>0.87302038216424638</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="19">
         <v>0.12919777870351368</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="19">
         <v>0.37278219346612285</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="19">
         <v>0.82152887151051568</v>
       </c>
-      <c r="G75" s="20">
+      <c r="G75" s="19">
         <v>0.48068915061534223</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>0.28780046186004049</v>
       </c>
-      <c r="I75" s="20">
+      <c r="I75" s="19">
         <v>0.75874506920676243</v>
       </c>
-      <c r="J75" s="20">
+      <c r="J75" s="19">
         <v>0.96837407898605121</v>
       </c>
-      <c r="K75" s="20">
+      <c r="K75" s="19">
         <v>0.93329481097104772</v>
       </c>
-      <c r="L75" s="21"/>
-      <c r="O75" s="20">
-        <f>B75*$M$3+C75*$M$4+D75*$M$5+E75*$M$6+F75*$M$7+G75*$M$8+$H75*$M$9+I75*$M$10+J75*$M$11+K75*$M$12</f>
+      <c r="L75" s="20"/>
+      <c r="O75" s="19">
+        <f t="shared" si="2"/>
         <v>3.5645182586109727</v>
       </c>
       <c r="P75">
@@ -13583,45 +13581,45 @@
       <c r="Q75">
         <v>19</v>
       </c>
-      <c r="V75" s="29">
+      <c r="V75" s="26">
         <v>3.5645182586109727</v>
       </c>
-      <c r="W75" s="29"/>
+      <c r="W75" s="26"/>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B76" s="20">
+      <c r="B76" s="19">
         <v>0.99506276608214406</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="19">
         <v>0.57000038213939641</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="19">
         <v>0.6798552844436192</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="19">
         <v>9.0424834135632626E-2</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="19">
         <v>0.48476118707192584</v>
       </c>
-      <c r="G76" s="20">
+      <c r="G76" s="19">
         <v>0.61387664460890279</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="19">
         <v>0.92573844604453348</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I76" s="19">
         <v>0.1211724288973236</v>
       </c>
-      <c r="J76" s="20">
+      <c r="J76" s="19">
         <v>0.8606492010034148</v>
       </c>
-      <c r="K76" s="20">
+      <c r="K76" s="19">
         <v>0.45426939016620893</v>
       </c>
-      <c r="L76" s="21"/>
-      <c r="O76" s="20">
-        <f>B76*$M$3+C76*$M$4+D76*$M$5+E76*$M$6+F76*$M$7+G76*$M$8+$H76*$M$9+I76*$M$10+J76*$M$11+K76*$M$12</f>
+      <c r="L76" s="20"/>
+      <c r="O76" s="19">
+        <f t="shared" si="2"/>
         <v>3.1167190840575256</v>
       </c>
       <c r="P76">
@@ -13630,45 +13628,45 @@
       <c r="Q76">
         <v>19</v>
       </c>
-      <c r="V76" s="29">
+      <c r="V76" s="26">
         <v>3.1167190840575256</v>
       </c>
-      <c r="W76" s="29"/>
+      <c r="W76" s="26"/>
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B77" s="20">
+      <c r="B77" s="19">
         <v>0.20206931549392404</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="19">
         <v>0.7087431254304819</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="19">
         <v>0.97151817347755665</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="19">
         <v>0.6763263739865627</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="19">
         <v>0.99470393124134671</v>
       </c>
-      <c r="G77" s="20">
+      <c r="G77" s="19">
         <v>0.48850267086655252</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="19">
         <v>0.55496808150209065</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I77" s="19">
         <v>0.8794113540109727</v>
       </c>
-      <c r="J77" s="20">
+      <c r="J77" s="19">
         <v>9.0675224203764393E-2</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K77" s="19">
         <v>0.25814644374810269</v>
       </c>
-      <c r="L77" s="21"/>
-      <c r="O77" s="20">
-        <f>B77*$M$3+C77*$M$4+D77*$M$5+E77*$M$6+F77*$M$7+G77*$M$8+$H77*$M$9+I77*$M$10+J77*$M$11+K77*$M$12</f>
+      <c r="L77" s="20"/>
+      <c r="O77" s="19">
+        <f t="shared" si="2"/>
         <v>2.8413317223354158</v>
       </c>
       <c r="P77">
@@ -13677,45 +13675,45 @@
       <c r="Q77">
         <v>19</v>
       </c>
-      <c r="V77" s="29">
+      <c r="V77" s="26">
         <v>2.8413317223354158</v>
       </c>
-      <c r="W77" s="29"/>
+      <c r="W77" s="26"/>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B78" s="20">
+      <c r="B78" s="19">
         <v>0.24775558299117739</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="19">
         <v>0.98145485548011302</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="19">
         <v>0.18113499172147729</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="19">
         <v>0.15141720378584078</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="19">
         <v>0.49427793774461037</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G78" s="19">
         <v>1.1611164276664421E-2</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="19">
         <v>0.32218724308615987</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I78" s="19">
         <v>0.76274082788030972</v>
       </c>
-      <c r="J78" s="20">
+      <c r="J78" s="19">
         <v>0.25529404288016178</v>
       </c>
-      <c r="K78" s="20">
+      <c r="K78" s="19">
         <v>0.16650993865674735</v>
       </c>
-      <c r="L78" s="21"/>
-      <c r="O78" s="20">
-        <f>B78*$M$3+C78*$M$4+D78*$M$5+E78*$M$6+F78*$M$7+G78*$M$8+$H78*$M$9+I78*$M$10+J78*$M$11+K78*$M$12</f>
+      <c r="L78" s="20"/>
+      <c r="O78" s="19">
+        <f t="shared" si="2"/>
         <v>2.4463079274187964</v>
       </c>
       <c r="P78">
@@ -13724,45 +13722,45 @@
       <c r="Q78">
         <v>19</v>
       </c>
-      <c r="V78" s="29">
+      <c r="V78" s="26">
         <v>2.4463079274187964</v>
       </c>
-      <c r="W78" s="29"/>
+      <c r="W78" s="26"/>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B79" s="20">
+      <c r="B79" s="19">
         <v>0.65354545203914749</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="19">
         <v>0.92137958849382207</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="19">
         <v>3.1690220257763135E-2</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="19">
         <v>0.11971352127176715</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="19">
         <v>0.60653531903507352</v>
       </c>
-      <c r="G79" s="20">
+      <c r="G79" s="19">
         <v>0.17523793342524763</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="19">
         <v>0.40313821162971886</v>
       </c>
-      <c r="I79" s="20">
+      <c r="I79" s="19">
         <v>0.11976308542989167</v>
       </c>
-      <c r="J79" s="20">
+      <c r="J79" s="19">
         <v>0.46511318893686704</v>
       </c>
-      <c r="K79" s="20">
+      <c r="K79" s="19">
         <v>0.36372397510372134</v>
       </c>
-      <c r="L79" s="21"/>
-      <c r="O79" s="20">
-        <f>B79*$M$3+C79*$M$4+D79*$M$5+E79*$M$6+F79*$M$7+G79*$M$8+$H79*$M$9+I79*$M$10+J79*$M$11+K79*$M$12</f>
+      <c r="L79" s="20"/>
+      <c r="O79" s="19">
+        <f t="shared" si="2"/>
         <v>2.4143891878911883</v>
       </c>
       <c r="P79">
@@ -13771,45 +13769,45 @@
       <c r="Q79">
         <v>19</v>
       </c>
-      <c r="V79" s="29">
+      <c r="V79" s="26">
         <v>2.4143891878911883</v>
       </c>
-      <c r="W79" s="29"/>
+      <c r="W79" s="26"/>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B80" s="20">
+      <c r="B80" s="19">
         <v>0.8054993116551139</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="19">
         <v>1.2225347325063196E-2</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="19">
         <v>0.232670558477579</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="19">
         <v>1.6671413952592085E-2</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="19">
         <v>9.3761179896267866E-3</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="19">
         <v>0.60148737405703068</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="19">
         <v>0.71613085959678258</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="19">
         <v>0.49980253514661765</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J80" s="19">
         <v>0.59458577407352686</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="19">
         <v>0.36610223602659153</v>
       </c>
-      <c r="L80" s="21"/>
-      <c r="O80" s="20">
-        <f>B80*$M$3+C80*$M$4+D80*$M$5+E80*$M$6+F80*$M$7+G80*$M$8+$H80*$M$9+I80*$M$10+J80*$M$11+K80*$M$12</f>
+      <c r="L80" s="20"/>
+      <c r="O80" s="19">
+        <f t="shared" si="2"/>
         <v>2.2857360953658592</v>
       </c>
       <c r="P80">
@@ -13818,45 +13816,45 @@
       <c r="Q80">
         <v>19</v>
       </c>
-      <c r="V80" s="29">
+      <c r="V80" s="26">
         <v>2.2857360953658592</v>
       </c>
-      <c r="W80" s="29"/>
+      <c r="W80" s="26"/>
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B81" s="20">
+      <c r="B81" s="19">
         <v>9.104701316398589E-2</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="19">
         <v>0.80603467816007601</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="19">
         <v>0.94371255014590083</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E81" s="19">
         <v>0.58513415182413342</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="19">
         <v>0.48637120260536637</v>
       </c>
-      <c r="G81" s="20">
+      <c r="G81" s="19">
         <v>0.63530680393201933</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="19">
         <v>0.75971191845731434</v>
       </c>
-      <c r="I81" s="20">
+      <c r="I81" s="19">
         <v>0.64628989299004436</v>
       </c>
-      <c r="J81" s="20">
+      <c r="J81" s="19">
         <v>0.53013227188476375</v>
       </c>
-      <c r="K81" s="20">
+      <c r="K81" s="19">
         <v>0.94126501427006237</v>
       </c>
-      <c r="L81" s="21"/>
-      <c r="O81" s="20">
-        <f>B81*$M$3+C81*$M$4+D81*$M$5+E81*$M$6+F81*$M$7+G81*$M$8+$H81*$M$9+I81*$M$10+J81*$M$11+K81*$M$12</f>
+      <c r="L81" s="20"/>
+      <c r="O81" s="19">
+        <f t="shared" si="2"/>
         <v>3.5396995073897637</v>
       </c>
       <c r="P81">
@@ -13865,45 +13863,45 @@
       <c r="Q81">
         <v>19</v>
       </c>
-      <c r="V81" s="29">
+      <c r="V81" s="26">
         <v>3.5396995073897637</v>
       </c>
-      <c r="W81" s="29"/>
+      <c r="W81" s="26"/>
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B82" s="20">
+      <c r="B82" s="19">
         <v>0.19711895951439562</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="19">
         <v>0.2133915708613392</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="19">
         <v>0.9260202369103766</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="19">
         <v>0.62260996042656491</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="19">
         <v>0.41510378571144679</v>
       </c>
-      <c r="G82" s="20">
+      <c r="G82" s="19">
         <v>0.16513907816958773</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="19">
         <v>0.10223967317265736</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I82" s="19">
         <v>0.12206386460484941</v>
       </c>
-      <c r="J82" s="20">
+      <c r="J82" s="19">
         <v>0.16045297065672293</v>
       </c>
-      <c r="K82" s="20">
+      <c r="K82" s="19">
         <v>0.66570948774228023</v>
       </c>
-      <c r="L82" s="21"/>
-      <c r="O82" s="20">
-        <f>B82*$M$3+C82*$M$4+D82*$M$5+E82*$M$6+F82*$M$7+G82*$M$8+$H82*$M$9+I82*$M$10+J82*$M$11+K82*$M$12</f>
+      <c r="L82" s="20"/>
+      <c r="O82" s="19">
+        <f t="shared" si="2"/>
         <v>1.5363842861119599</v>
       </c>
       <c r="P82">
@@ -13912,45 +13910,45 @@
       <c r="Q82">
         <v>19</v>
       </c>
-      <c r="V82" s="29">
+      <c r="V82" s="26">
         <v>1.5363842861119599</v>
       </c>
-      <c r="W82" s="29"/>
+      <c r="W82" s="26"/>
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B83" s="20">
+      <c r="B83" s="19">
         <v>0.41180184451684798</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <v>0.17189563431451249</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>0.48893880291676584</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="19">
         <v>0.51500833141671543</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="19">
         <v>0.64193328212943024</v>
       </c>
-      <c r="G83" s="20">
+      <c r="G83" s="19">
         <v>0.66878634642477763</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="19">
         <v>0.59983402881872017</v>
       </c>
-      <c r="I83" s="20">
+      <c r="I83" s="19">
         <v>0.92732619896310353</v>
       </c>
-      <c r="J83" s="20">
+      <c r="J83" s="19">
         <v>0.55518678544655231</v>
       </c>
-      <c r="K83" s="20">
+      <c r="K83" s="19">
         <v>0.73838171269458597</v>
       </c>
-      <c r="L83" s="21"/>
-      <c r="O83" s="20">
-        <f>B83*$M$3+C83*$M$4+D83*$M$5+E83*$M$6+F83*$M$7+G83*$M$8+$H83*$M$9+I83*$M$10+J83*$M$11+K83*$M$12</f>
+      <c r="L83" s="20"/>
+      <c r="O83" s="19">
+        <f t="shared" si="2"/>
         <v>3.1447494209239131</v>
       </c>
       <c r="P83">
@@ -13959,45 +13957,45 @@
       <c r="Q83">
         <v>19</v>
       </c>
-      <c r="V83" s="29">
+      <c r="V83" s="26">
         <v>3.1447494209239131</v>
       </c>
-      <c r="W83" s="29"/>
+      <c r="W83" s="26"/>
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B84" s="20">
+      <c r="B84" s="19">
         <v>0.25356290817567417</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C84" s="19">
         <v>0.65590113895241842</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="19">
         <v>0.49545454468539363</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="19">
         <v>0.92395230536882278</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="19">
         <v>0.83031178235655445</v>
       </c>
-      <c r="G84" s="20">
+      <c r="G84" s="19">
         <v>0.44172177703652604</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="19">
         <v>0.47370197759305188</v>
       </c>
-      <c r="I84" s="20">
+      <c r="I84" s="19">
         <v>0.61239566767452536</v>
       </c>
-      <c r="J84" s="20">
+      <c r="J84" s="19">
         <v>0.94100702617997822</v>
       </c>
-      <c r="K84" s="20">
+      <c r="K84" s="19">
         <v>0.52570252439081588</v>
       </c>
-      <c r="L84" s="21"/>
-      <c r="O84" s="20">
-        <f>B84*$M$3+C84*$M$4+D84*$M$5+E84*$M$6+F84*$M$7+G84*$M$8+$H84*$M$9+I84*$M$10+J84*$M$11+K84*$M$12</f>
+      <c r="L84" s="20"/>
+      <c r="O84" s="19">
+        <f t="shared" si="2"/>
         <v>3.206928637288379</v>
       </c>
       <c r="P84">
@@ -14006,45 +14004,45 @@
       <c r="Q84">
         <v>19</v>
       </c>
-      <c r="V84" s="29">
+      <c r="V84" s="26">
         <v>3.206928637288379</v>
       </c>
-      <c r="W84" s="29"/>
+      <c r="W84" s="26"/>
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B85" s="20">
+      <c r="B85" s="19">
         <v>0.99208111337689353</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="19">
         <v>0.82888581725109001</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="19">
         <v>0.90221290672837373</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="19">
         <v>0.26287665293451001</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="19">
         <v>0.59951631132047511</v>
       </c>
-      <c r="G85" s="20">
+      <c r="G85" s="19">
         <v>0.66822557128432225</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H85" s="19">
         <v>0.87282980812442679</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I85" s="19">
         <v>0.38947199135861943</v>
       </c>
-      <c r="J85" s="20">
+      <c r="J85" s="19">
         <v>0.86975608868865717</v>
       </c>
-      <c r="K85" s="20">
+      <c r="K85" s="19">
         <v>0.11347721722146697</v>
       </c>
-      <c r="L85" s="21"/>
-      <c r="O85" s="20">
-        <f>B85*$M$3+C85*$M$4+D85*$M$5+E85*$M$6+F85*$M$7+G85*$M$8+$H85*$M$9+I85*$M$10+J85*$M$11+K85*$M$12</f>
+      <c r="L85" s="20"/>
+      <c r="O85" s="19">
+        <f t="shared" si="2"/>
         <v>3.3232348119377719</v>
       </c>
       <c r="P85">
@@ -14053,45 +14051,45 @@
       <c r="Q85">
         <v>19</v>
       </c>
-      <c r="V85" s="29">
+      <c r="V85" s="26">
         <v>3.3232348119377719</v>
       </c>
-      <c r="W85" s="29"/>
+      <c r="W85" s="26"/>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B86" s="20">
+      <c r="B86" s="19">
         <v>0.86095363629811994</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="19">
         <v>0.31889582209624667</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="19">
         <v>0.50645079497043144</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="19">
         <v>0.98090207322716683</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="19">
         <v>0.52030335033815212</v>
       </c>
-      <c r="G86" s="20">
+      <c r="G86" s="19">
         <v>0.16439314721387444</v>
       </c>
-      <c r="H86" s="20">
+      <c r="H86" s="19">
         <v>0.57741125058838394</v>
       </c>
-      <c r="I86" s="20">
+      <c r="I86" s="19">
         <v>0.71567750096285843</v>
       </c>
-      <c r="J86" s="20">
+      <c r="J86" s="19">
         <v>0.1780656840791065</v>
       </c>
-      <c r="K86" s="20">
+      <c r="K86" s="19">
         <v>0.85139178533602478</v>
       </c>
-      <c r="L86" s="21"/>
-      <c r="O86" s="20">
-        <f>B86*$M$3+C86*$M$4+D86*$M$5+E86*$M$6+F86*$M$7+G86*$M$8+$H86*$M$9+I86*$M$10+J86*$M$11+K86*$M$12</f>
+      <c r="L86" s="20"/>
+      <c r="O86" s="19">
+        <f t="shared" si="2"/>
         <v>3.1728390194468465</v>
       </c>
       <c r="P86">
@@ -14100,45 +14098,45 @@
       <c r="Q86">
         <v>19</v>
       </c>
-      <c r="V86" s="29">
+      <c r="V86" s="26">
         <v>3.1728390194468465</v>
       </c>
-      <c r="W86" s="29"/>
+      <c r="W86" s="26"/>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B87" s="20">
+      <c r="B87" s="19">
         <v>5.4231212873669277E-2</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="19">
         <v>1.6452545837222221E-2</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>0.16728887266675863</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="19">
         <v>0.46262390453833924</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="19">
         <v>0.69651984471393413</v>
       </c>
-      <c r="G87" s="20">
+      <c r="G87" s="19">
         <v>0.7028442308340993</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="19">
         <v>0.50798782725499392</v>
       </c>
-      <c r="I87" s="20">
+      <c r="I87" s="19">
         <v>0.87023876505674358</v>
       </c>
-      <c r="J87" s="20">
+      <c r="J87" s="19">
         <v>0.40907355355307717</v>
       </c>
-      <c r="K87" s="20">
+      <c r="K87" s="19">
         <v>0.25142592213131265</v>
       </c>
-      <c r="L87" s="21"/>
-      <c r="O87" s="20">
-        <f>B87*$M$3+C87*$M$4+D87*$M$5+E87*$M$6+F87*$M$7+G87*$M$8+$H87*$M$9+I87*$M$10+J87*$M$11+K87*$M$12</f>
+      <c r="L87" s="20"/>
+      <c r="O87" s="19">
+        <f t="shared" si="2"/>
         <v>2.1310039189935424</v>
       </c>
       <c r="P87">
@@ -14147,45 +14145,45 @@
       <c r="Q87">
         <v>19</v>
       </c>
-      <c r="V87" s="29">
+      <c r="V87" s="26">
         <v>2.1310039189935424</v>
       </c>
-      <c r="W87" s="29"/>
+      <c r="W87" s="26"/>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B88" s="20">
+      <c r="B88" s="19">
         <v>0.88507067996848199</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="19">
         <v>0.30229933558821553</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D88" s="19">
         <v>0.18566804442616136</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="19">
         <v>0.19999254815730283</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F88" s="19">
         <v>0.93004567881567435</v>
       </c>
-      <c r="G88" s="20">
+      <c r="G88" s="19">
         <v>0.7216838230466992</v>
       </c>
-      <c r="H88" s="20">
+      <c r="H88" s="19">
         <v>0.70442011089191925</v>
       </c>
-      <c r="I88" s="20">
+      <c r="I88" s="19">
         <v>0.11507766505708616</v>
       </c>
-      <c r="J88" s="20">
+      <c r="J88" s="19">
         <v>0.14836108771913625</v>
       </c>
-      <c r="K88" s="20">
+      <c r="K88" s="19">
         <v>0.3595939434924077</v>
       </c>
-      <c r="L88" s="21"/>
-      <c r="O88" s="20">
-        <f>B88*$M$3+C88*$M$4+D88*$M$5+E88*$M$6+F88*$M$7+G88*$M$8+$H88*$M$9+I88*$M$10+J88*$M$11+K88*$M$12</f>
+      <c r="L88" s="20"/>
+      <c r="O88" s="19">
+        <f t="shared" si="2"/>
         <v>2.2465147706570119</v>
       </c>
       <c r="P88">
@@ -14194,45 +14192,45 @@
       <c r="Q88">
         <v>19</v>
       </c>
-      <c r="V88" s="29">
+      <c r="V88" s="26">
         <v>2.2465147706570119</v>
       </c>
-      <c r="W88" s="29"/>
+      <c r="W88" s="26"/>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B89" s="20">
+      <c r="B89" s="19">
         <v>0.51596102963155377</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="19">
         <v>0.65838327819170017</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="19">
         <v>0.82950896423807419</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="19">
         <v>0.81502566902137064</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F89" s="19">
         <v>0.79292684286671555</v>
       </c>
-      <c r="G89" s="20">
+      <c r="G89" s="19">
         <v>0.80370505850608298</v>
       </c>
-      <c r="H89" s="20">
+      <c r="H89" s="19">
         <v>8.4733791779581957E-2</v>
       </c>
-      <c r="I89" s="20">
+      <c r="I89" s="19">
         <v>0.24113926967015609</v>
       </c>
-      <c r="J89" s="20">
+      <c r="J89" s="19">
         <v>0.35211638304726578</v>
       </c>
-      <c r="K89" s="20">
+      <c r="K89" s="19">
         <v>0.11489200392367804</v>
       </c>
-      <c r="L89" s="21"/>
-      <c r="O89" s="20">
-        <f>B89*$M$3+C89*$M$4+D89*$M$5+E89*$M$6+F89*$M$7+G89*$M$8+$H89*$M$9+I89*$M$10+J89*$M$11+K89*$M$12</f>
+      <c r="L89" s="20"/>
+      <c r="O89" s="19">
+        <f t="shared" si="2"/>
         <v>1.9804264641381037</v>
       </c>
       <c r="P89">
@@ -14241,45 +14239,45 @@
       <c r="Q89">
         <v>19</v>
       </c>
-      <c r="V89" s="29">
+      <c r="V89" s="26">
         <v>1.9804264641381037</v>
       </c>
-      <c r="W89" s="29"/>
+      <c r="W89" s="26"/>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B90" s="20">
+      <c r="B90" s="19">
         <v>0.34019820505977216</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="19">
         <v>0.81024099764265101</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="19">
         <v>0.26696517305685408</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="19">
         <v>0.87198782561379362</v>
       </c>
-      <c r="F90" s="20">
+      <c r="F90" s="19">
         <v>0.16356357296837887</v>
       </c>
-      <c r="G90" s="20">
+      <c r="G90" s="19">
         <v>0.6137263699483898</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="19">
         <v>0.5337514404875926</v>
       </c>
-      <c r="I90" s="20">
+      <c r="I90" s="19">
         <v>0.97904020182088658</v>
       </c>
-      <c r="J90" s="20">
+      <c r="J90" s="19">
         <v>0.42793381517736873</v>
       </c>
-      <c r="K90" s="20">
+      <c r="K90" s="19">
         <v>1.8610902374206373E-2</v>
       </c>
-      <c r="L90" s="21"/>
-      <c r="O90" s="20">
-        <f>B90*$M$3+C90*$M$4+D90*$M$5+E90*$M$6+F90*$M$7+G90*$M$8+$H90*$M$9+I90*$M$10+J90*$M$11+K90*$M$12</f>
+      <c r="L90" s="20"/>
+      <c r="O90" s="19">
+        <f t="shared" si="2"/>
         <v>2.7742515476571299</v>
       </c>
       <c r="P90">
@@ -14288,45 +14286,45 @@
       <c r="Q90">
         <v>19</v>
       </c>
-      <c r="V90" s="29">
+      <c r="V90" s="26">
         <v>2.7742515476571299</v>
       </c>
-      <c r="W90" s="29"/>
+      <c r="W90" s="26"/>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B91" s="20">
+      <c r="B91" s="19">
         <v>0.8046510063475607</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="19">
         <v>0.32765763874327369</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="19">
         <v>9.467326889613048E-3</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="19">
         <v>0.66976423894075976</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="19">
         <v>0.36411017289498759</v>
       </c>
-      <c r="G91" s="20">
+      <c r="G91" s="19">
         <v>0.12926566590635791</v>
       </c>
-      <c r="H91" s="20">
+      <c r="H91" s="19">
         <v>0.85033863645550445</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="19">
         <v>0.5417885552542141</v>
       </c>
-      <c r="J91" s="20">
+      <c r="J91" s="19">
         <v>0.50659467460627727</v>
       </c>
-      <c r="K91" s="20">
+      <c r="K91" s="19">
         <v>0.96336424457313463</v>
       </c>
-      <c r="L91" s="21"/>
-      <c r="O91" s="20">
-        <f>B91*$M$3+C91*$M$4+D91*$M$5+E91*$M$6+F91*$M$7+G91*$M$8+$H91*$M$9+I91*$M$10+J91*$M$11+K91*$M$12</f>
+      <c r="L91" s="20"/>
+      <c r="O91" s="19">
+        <f t="shared" si="2"/>
         <v>3.3570320966235485</v>
       </c>
       <c r="P91">
@@ -14335,45 +14333,45 @@
       <c r="Q91">
         <v>19</v>
       </c>
-      <c r="V91" s="29">
+      <c r="V91" s="26">
         <v>3.3570320966235485</v>
       </c>
-      <c r="W91" s="29"/>
+      <c r="W91" s="26"/>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B92" s="20">
+      <c r="B92" s="19">
         <v>9.0584438084753027E-2</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="19">
         <v>0.61070210744408504</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="19">
         <v>0.78100245481843766</v>
       </c>
-      <c r="E92" s="20">
+      <c r="E92" s="19">
         <v>0.68450146148507529</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F92" s="19">
         <v>0.63322416102122769</v>
       </c>
-      <c r="G92" s="20">
+      <c r="G92" s="19">
         <v>0.41682568475737047</v>
       </c>
-      <c r="H92" s="20">
+      <c r="H92" s="19">
         <v>7.7050747351325333E-2</v>
       </c>
-      <c r="I92" s="20">
+      <c r="I92" s="19">
         <v>5.8717711369878134E-2</v>
       </c>
-      <c r="J92" s="20">
+      <c r="J92" s="19">
         <v>0.91558684464259632</v>
       </c>
-      <c r="K92" s="20">
+      <c r="K92" s="19">
         <v>0.42431777349937039</v>
       </c>
-      <c r="L92" s="21"/>
-      <c r="O92" s="20">
-        <f>B92*$M$3+C92*$M$4+D92*$M$5+E92*$M$6+F92*$M$7+G92*$M$8+$H92*$M$9+I92*$M$10+J92*$M$11+K92*$M$12</f>
+      <c r="L92" s="20"/>
+      <c r="O92" s="19">
+        <f t="shared" si="2"/>
         <v>2.0466930884731278</v>
       </c>
       <c r="P92">
@@ -14382,45 +14380,45 @@
       <c r="Q92">
         <v>19</v>
       </c>
-      <c r="V92" s="29">
+      <c r="V92" s="26">
         <v>2.0466930884731278</v>
       </c>
-      <c r="W92" s="29"/>
+      <c r="W92" s="26"/>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B93" s="20">
+      <c r="B93" s="19">
         <v>0.7206931998452174</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="19">
         <v>3.5660062226176348E-2</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="19">
         <v>0.12314910488920605</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="19">
         <v>0.31392042187286939</v>
       </c>
-      <c r="F93" s="20">
+      <c r="F93" s="19">
         <v>0.26247952877889957</v>
       </c>
-      <c r="G93" s="20">
+      <c r="G93" s="19">
         <v>0.85830166093569338</v>
       </c>
-      <c r="H93" s="20">
+      <c r="H93" s="19">
         <v>0.29973582311457769</v>
       </c>
-      <c r="I93" s="20">
+      <c r="I93" s="19">
         <v>0.42503041281975962</v>
       </c>
-      <c r="J93" s="20">
+      <c r="J93" s="19">
         <v>0.93678899185872044</v>
       </c>
-      <c r="K93" s="20">
+      <c r="K93" s="19">
         <v>0.37126024266798641</v>
       </c>
-      <c r="L93" s="21"/>
-      <c r="O93" s="20">
-        <f>B93*$M$3+C93*$M$4+D93*$M$5+E93*$M$6+F93*$M$7+G93*$M$8+$H93*$M$9+I93*$M$10+J93*$M$11+K93*$M$12</f>
+      <c r="L93" s="20"/>
+      <c r="O93" s="19">
+        <f t="shared" si="2"/>
         <v>2.1981327190289845</v>
       </c>
       <c r="P93">
@@ -14429,45 +14427,45 @@
       <c r="Q93">
         <v>19</v>
       </c>
-      <c r="V93" s="29">
+      <c r="V93" s="26">
         <v>2.1981327190289845</v>
       </c>
-      <c r="W93" s="29"/>
+      <c r="W93" s="26"/>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B94" s="20">
+      <c r="B94" s="19">
         <v>0.20513790287564915</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="19">
         <v>8.5395384598997537E-2</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="19">
         <v>0.70478194002044448</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="19">
         <v>0.86425836208223716</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="19">
         <v>6.1112525070610602E-2</v>
       </c>
-      <c r="G94" s="20">
+      <c r="G94" s="19">
         <v>0.36898951933551216</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="19">
         <v>0.14419815057992946</v>
       </c>
-      <c r="I94" s="20">
+      <c r="I94" s="19">
         <v>0.2897488320643854</v>
       </c>
-      <c r="J94" s="20">
+      <c r="J94" s="19">
         <v>0.68351828662641645</v>
       </c>
-      <c r="K94" s="20">
+      <c r="K94" s="19">
         <v>0.24070817291181679</v>
       </c>
-      <c r="L94" s="21"/>
-      <c r="O94" s="20">
-        <f>B94*$M$3+C94*$M$4+D94*$M$5+E94*$M$6+F94*$M$7+G94*$M$8+$H94*$M$9+I94*$M$10+J94*$M$11+K94*$M$12</f>
+      <c r="L94" s="20"/>
+      <c r="O94" s="19">
+        <f t="shared" si="2"/>
         <v>1.4747979067491177</v>
       </c>
       <c r="P94">
@@ -14476,45 +14474,45 @@
       <c r="Q94">
         <v>19</v>
       </c>
-      <c r="V94" s="29">
+      <c r="V94" s="26">
         <v>1.4747979067491177</v>
       </c>
-      <c r="W94" s="29"/>
+      <c r="W94" s="26"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B95" s="20">
+      <c r="B95" s="19">
         <v>0.52757134135495443</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="19">
         <v>0.60182495297112981</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="19">
         <v>0.60488689878166579</v>
       </c>
-      <c r="E95" s="20">
+      <c r="E95" s="19">
         <v>0.23550383286823762</v>
       </c>
-      <c r="F95" s="20">
+      <c r="F95" s="19">
         <v>0.8743700044595446</v>
       </c>
-      <c r="G95" s="20">
+      <c r="G95" s="19">
         <v>0.30679940652791493</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="19">
         <v>0.82239753095549606</v>
       </c>
-      <c r="I95" s="20">
+      <c r="I95" s="19">
         <v>2.031201637395974E-2</v>
       </c>
-      <c r="J95" s="20">
+      <c r="J95" s="19">
         <v>0.13875104311915676</v>
       </c>
-      <c r="K95" s="20">
+      <c r="K95" s="19">
         <v>0.16604861615127353</v>
       </c>
-      <c r="L95" s="21"/>
-      <c r="O95" s="20">
-        <f>B95*$M$3+C95*$M$4+D95*$M$5+E95*$M$6+F95*$M$7+G95*$M$8+$H95*$M$9+I95*$M$10+J95*$M$11+K95*$M$12</f>
+      <c r="L95" s="20"/>
+      <c r="O95" s="19">
+        <f t="shared" si="2"/>
         <v>2.1184757013804667</v>
       </c>
       <c r="P95">
@@ -14523,45 +14521,45 @@
       <c r="Q95">
         <v>19</v>
       </c>
-      <c r="V95" s="29">
+      <c r="V95" s="26">
         <v>2.1184757013804667</v>
       </c>
-      <c r="W95" s="29"/>
+      <c r="W95" s="26"/>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B96" s="20">
+      <c r="B96" s="19">
         <v>0.19853087692607907</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="19">
         <v>0.1365627024883852</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="19">
         <v>0.59769478333312631</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="19">
         <v>0.33226093926332012</v>
       </c>
-      <c r="F96" s="20">
+      <c r="F96" s="19">
         <v>0.72119752909544976</v>
       </c>
-      <c r="G96" s="20">
+      <c r="G96" s="19">
         <v>0.95237610176986842</v>
       </c>
-      <c r="H96" s="20">
+      <c r="H96" s="19">
         <v>0.90466518180989708</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I96" s="19">
         <v>0.99596471594496105</v>
       </c>
-      <c r="J96" s="20">
+      <c r="J96" s="19">
         <v>0.56652847788131255</v>
       </c>
-      <c r="K96" s="20">
+      <c r="K96" s="19">
         <v>0.10209932160017854</v>
       </c>
-      <c r="L96" s="21"/>
-      <c r="O96" s="20">
-        <f>B96*$M$3+C96*$M$4+D96*$M$5+E96*$M$6+F96*$M$7+G96*$M$8+$H96*$M$9+I96*$M$10+J96*$M$11+K96*$M$12</f>
+      <c r="L96" s="20"/>
+      <c r="O96" s="19">
+        <f t="shared" si="2"/>
         <v>2.7593652414690255</v>
       </c>
       <c r="P96">
@@ -14570,45 +14568,45 @@
       <c r="Q96">
         <v>19</v>
       </c>
-      <c r="V96" s="29">
+      <c r="V96" s="26">
         <v>2.7593652414690255</v>
       </c>
-      <c r="W96" s="29"/>
+      <c r="W96" s="26"/>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B97" s="20">
+      <c r="B97" s="19">
         <v>0.98791428906236123</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="19">
         <v>0.28800139452906826</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="19">
         <v>0.31016356163993697</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="19">
         <v>0.98682057319483441</v>
       </c>
-      <c r="F97" s="20">
+      <c r="F97" s="19">
         <v>0.32934787809493438</v>
       </c>
-      <c r="G97" s="20">
+      <c r="G97" s="19">
         <v>0.21524339371697954</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="19">
         <v>0.96955390540086572</v>
       </c>
-      <c r="I97" s="20">
+      <c r="I97" s="19">
         <v>0.1719738140007</v>
       </c>
-      <c r="J97" s="20">
+      <c r="J97" s="19">
         <v>0.69513200177785039</v>
       </c>
-      <c r="K97" s="20">
+      <c r="K97" s="19">
         <v>0.43806750693848318</v>
       </c>
-      <c r="L97" s="21"/>
-      <c r="O97" s="20">
-        <f>B97*$M$3+C97*$M$4+D97*$M$5+E97*$M$6+F97*$M$7+G97*$M$8+$H97*$M$9+I97*$M$10+J97*$M$11+K97*$M$12</f>
+      <c r="L97" s="20"/>
+      <c r="O97" s="19">
+        <f t="shared" si="2"/>
         <v>2.8798518471077292</v>
       </c>
       <c r="P97">
@@ -14617,45 +14615,45 @@
       <c r="Q97">
         <v>19</v>
       </c>
-      <c r="V97" s="29">
+      <c r="V97" s="26">
         <v>2.8798518471077292</v>
       </c>
-      <c r="W97" s="29"/>
+      <c r="W97" s="26"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B98" s="20">
+      <c r="B98" s="19">
         <v>0.23351755260231344</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="19">
         <v>0.98708269764543721</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="19">
         <v>5.5403549767433335E-2</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="19">
         <v>6.4160783084740491E-2</v>
       </c>
-      <c r="F98" s="20">
+      <c r="F98" s="19">
         <v>0.22783603506962291</v>
       </c>
-      <c r="G98" s="20">
+      <c r="G98" s="19">
         <v>0.29211682273456707</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="19">
         <v>4.202594517450553E-2</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I98" s="19">
         <v>4.9197709757579311E-2</v>
       </c>
-      <c r="J98" s="20">
+      <c r="J98" s="19">
         <v>9.6165725421398451E-2</v>
       </c>
-      <c r="K98" s="20">
+      <c r="K98" s="19">
         <v>0.10606184863469592</v>
       </c>
-      <c r="L98" s="21"/>
-      <c r="O98" s="20">
-        <f>B98*$M$3+C98*$M$4+D98*$M$5+E98*$M$6+F98*$M$7+G98*$M$8+$H98*$M$9+I98*$M$10+J98*$M$11+K98*$M$12</f>
+      <c r="L98" s="20"/>
+      <c r="O98" s="19">
+        <f t="shared" si="2"/>
         <v>1.2992440480874974</v>
       </c>
       <c r="P98">
@@ -14664,45 +14662,45 @@
       <c r="Q98">
         <v>19</v>
       </c>
-      <c r="V98" s="29">
+      <c r="V98" s="26">
         <v>1.2992440480874974</v>
       </c>
-      <c r="W98" s="29"/>
+      <c r="W98" s="26"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B99" s="20">
+      <c r="B99" s="19">
         <v>0.14454640839435617</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="19">
         <v>0.30893366611439632</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="19">
         <v>0.76631979265036443</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="19">
         <v>9.6286005885231951E-2</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F99" s="19">
         <v>0.12012442071515439</v>
       </c>
-      <c r="G99" s="20">
+      <c r="G99" s="19">
         <v>0.6575596879263802</v>
       </c>
-      <c r="H99" s="20">
+      <c r="H99" s="19">
         <v>0.39615386024704813</v>
       </c>
-      <c r="I99" s="20">
+      <c r="I99" s="19">
         <v>0.97229309894765459</v>
       </c>
-      <c r="J99" s="20">
+      <c r="J99" s="19">
         <v>0.99781033609419945</v>
       </c>
-      <c r="K99" s="20">
+      <c r="K99" s="19">
         <v>0.65011697513348665</v>
       </c>
-      <c r="L99" s="21"/>
-      <c r="O99" s="20">
-        <f>B99*$M$3+C99*$M$4+D99*$M$5+E99*$M$6+F99*$M$7+G99*$M$8+$H99*$M$9+I99*$M$10+J99*$M$11+K99*$M$12</f>
+      <c r="L99" s="20"/>
+      <c r="O99" s="19">
+        <f t="shared" si="2"/>
         <v>2.9666441610643415</v>
       </c>
       <c r="P99">
@@ -14711,45 +14709,45 @@
       <c r="Q99">
         <v>19</v>
       </c>
-      <c r="V99" s="29">
+      <c r="V99" s="26">
         <v>2.9666441610643415</v>
       </c>
-      <c r="W99" s="29"/>
+      <c r="W99" s="26"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B100" s="20">
+      <c r="B100" s="19">
         <v>0.18740167390145557</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="19">
         <v>0.27051687167809235</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="19">
         <v>0.82078501792908209</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="19">
         <v>0.44837126043976627</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="19">
         <v>0.73972873399427663</v>
       </c>
-      <c r="G100" s="20">
+      <c r="G100" s="19">
         <v>0.57632158344691686</v>
       </c>
-      <c r="H100" s="20">
+      <c r="H100" s="19">
         <v>0.16874828002436093</v>
       </c>
-      <c r="I100" s="20">
+      <c r="I100" s="19">
         <v>0.6099083606656247</v>
       </c>
-      <c r="J100" s="20">
+      <c r="J100" s="19">
         <v>0.5864916211146568</v>
       </c>
-      <c r="K100" s="20">
+      <c r="K100" s="19">
         <v>0.42783344091359354</v>
       </c>
-      <c r="L100" s="21"/>
-      <c r="O100" s="20">
-        <f>B100*$M$3+C100*$M$4+D100*$M$5+E100*$M$6+F100*$M$7+G100*$M$8+$H100*$M$9+I100*$M$10+J100*$M$11+K100*$M$12</f>
+      <c r="L100" s="20"/>
+      <c r="O100" s="19">
+        <f t="shared" si="2"/>
         <v>2.2275445140638546</v>
       </c>
       <c r="P100">
@@ -14758,45 +14756,45 @@
       <c r="Q100">
         <v>19</v>
       </c>
-      <c r="V100" s="29">
+      <c r="V100" s="26">
         <v>2.2275445140638546</v>
       </c>
-      <c r="W100" s="29"/>
+      <c r="W100" s="26"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B101" s="20">
+      <c r="B101" s="19">
         <v>0.82356813193931644</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="19">
         <v>0.99075365903638157</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="19">
         <v>0.42365960284867377</v>
       </c>
-      <c r="E101" s="20">
+      <c r="E101" s="19">
         <v>0.73899161170707528</v>
       </c>
-      <c r="F101" s="20">
+      <c r="F101" s="19">
         <v>0.8458916147353811</v>
       </c>
-      <c r="G101" s="20">
+      <c r="G101" s="19">
         <v>0.4448032946798246</v>
       </c>
-      <c r="H101" s="20">
+      <c r="H101" s="19">
         <v>0.94022351264110471</v>
       </c>
-      <c r="I101" s="20">
+      <c r="I101" s="19">
         <v>0.80405167681501721</v>
       </c>
-      <c r="J101" s="20">
+      <c r="J101" s="19">
         <v>0.43502116926504819</v>
       </c>
-      <c r="K101" s="20">
+      <c r="K101" s="19">
         <v>0.27524285092886092</v>
       </c>
-      <c r="L101" s="21"/>
-      <c r="O101" s="20">
-        <f>B101*$M$3+C101*$M$4+D101*$M$5+E101*$M$6+F101*$M$7+G101*$M$8+$H101*$M$9+I101*$M$10+J101*$M$11+K101*$M$12</f>
+      <c r="L101" s="20"/>
+      <c r="O101" s="19">
+        <f t="shared" si="2"/>
         <v>3.791683179446157</v>
       </c>
       <c r="P101">
@@ -14805,45 +14803,45 @@
       <c r="Q101">
         <v>19</v>
       </c>
-      <c r="V101" s="29">
+      <c r="V101" s="26">
         <v>3.791683179446157</v>
       </c>
-      <c r="W101" s="29"/>
+      <c r="W101" s="26"/>
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B102" s="20">
+      <c r="B102" s="19">
         <v>0.45845122651154357</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C102" s="19">
         <v>0.74632957012230172</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D102" s="19">
         <v>0.29056185434175563</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="19">
         <v>0.85755642193081849</v>
       </c>
-      <c r="F102" s="20">
+      <c r="F102" s="19">
         <v>0.59209786436364686</v>
       </c>
-      <c r="G102" s="20">
+      <c r="G102" s="19">
         <v>2.0465310336024722E-2</v>
       </c>
-      <c r="H102" s="20">
+      <c r="H102" s="19">
         <v>0.71000086535517504</v>
       </c>
-      <c r="I102" s="20">
+      <c r="I102" s="19">
         <v>0.99568743941483284</v>
       </c>
-      <c r="J102" s="20">
+      <c r="J102" s="19">
         <v>0.22153320631960427</v>
       </c>
-      <c r="K102" s="20">
+      <c r="K102" s="19">
         <v>0.48246524296187887</v>
       </c>
-      <c r="L102" s="21"/>
-      <c r="O102" s="20">
-        <f>B102*$M$3+C102*$M$4+D102*$M$5+E102*$M$6+F102*$M$7+G102*$M$8+$H102*$M$9+I102*$M$10+J102*$M$11+K102*$M$12</f>
+      <c r="L102" s="20"/>
+      <c r="O102" s="19">
+        <f t="shared" si="2"/>
         <v>3.3358377796090335</v>
       </c>
       <c r="P102">
@@ -14852,10 +14850,10 @@
       <c r="Q102">
         <v>19</v>
       </c>
-      <c r="V102" s="29">
+      <c r="V102" s="26">
         <v>3.3358377796090335</v>
       </c>
-      <c r="W102" s="29"/>
+      <c r="W102" s="26"/>
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.45">
       <c r="P103">
